--- a/daten/DEUTSCHLAND_Mrd.xlsx
+++ b/daten/DEUTSCHLAND_Mrd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_98_gleichstellung\daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\80_politische_Bildung\daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1651050C-9FE8-4BBF-8048-7C9017A407DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2913BBB-91D9-4967-A688-1F891CAF4600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32083" yWindow="2289" windowWidth="28920" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Finanzen_in_Mrd" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
   <si>
     <t>Jahr</t>
   </si>
@@ -354,6 +354,23 @@
       <t>(grau Werte interpoliert)</t>
     </r>
   </si>
+  <si>
+    <t>1) https://www.deutschlandinzahlen.de/tab/bundeslaender/oeffentliche-haushalte/schulden/schulden-je-einwohner  
+2) https://de.statista.com/statistik/daten/studie/154798/umfrage/deutsche-staatsverschuldung-seit-2003/
+3) https://de.statista.com/statistik/daten/studie/4778/umfrage/schulden-der-haushalte-bund-laender-und-gemeinden/
+4) https://www.handelsblatt.com/politik/deutschland/staatsverschuldung-und-schuldenuhr-so-hoch-ist-die-staatsverschuldung-in-deutschland-2021/26273814.html</t>
+  </si>
+  <si>
+    <t>1) Steuereinnahmen in Deutschland - Statistik zur Verteilung nach Steuerarten (tagesgeldvergleich.net)
+2) https://www.bundesfinanzministerium.de/Content/DE/Standardartikel/Themen/Steuern/Steuerschaetzungen_und_Steuereinnahmen/2022-01-28-steuereinnahmen-4-vierteljahr-kalenderjahr_2021.pdf?__blob=publicationFile&amp;v=3</t>
+  </si>
+  <si>
+    <t>Vermögen</t>
+  </si>
+  <si>
+    <t>1) Einkommen und Vermögen – wachsende Ungleichheiten | bpb.de
+2) https://www.empirica-institut.de/fileadmin/Redaktion/Publikationen_Referenzen/PDFs/_Vermoegensbildung_LBS_Teil_3_Wohnflaechen_und_Vermoegen.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -371,7 +388,7 @@
     <numFmt numFmtId="171" formatCode="0.000_ ;[Red]\-0.000\ "/>
     <numFmt numFmtId="172" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -552,6 +569,27 @@
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -796,7 +834,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1006,7 +1044,6 @@
     </xf>
     <xf numFmtId="170" fontId="1" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="17" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="10" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
@@ -1017,7 +1054,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1032,12 +1068,10 @@
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="22" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="22" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="23" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="21" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="172" fontId="4" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="0" fillId="14" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1079,15 +1113,28 @@
     <xf numFmtId="164" fontId="27" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="29" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="29" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="11" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="3" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="30" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="31" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="32" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="13" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="28" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="28" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="28" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="23" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="27" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1165,6 +1212,13 @@
     </xf>
     <xf numFmtId="168" fontId="1" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="29" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1513,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E1AE49-7C1C-49E2-8E41-796F07A5B938}">
-  <dimension ref="A1:R130"/>
+  <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1526,8 +1580,8 @@
     <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="15.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="117" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="124" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="116" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="122" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.36328125" customWidth="1"/>
     <col min="10" max="10" width="11.26953125" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -1538,82 +1592,89 @@
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="65" customFormat="1" ht="306.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="126">
+    <row r="1" spans="1:20" s="65" customFormat="1" ht="306.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="124">
         <v>1000</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="C1" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="119"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="118"/>
       <c r="H1" s="61" t="s">
         <v>31</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="192" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="194" t="s">
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="195"/>
-      <c r="P1" s="143" t="s">
+      <c r="O1" s="200"/>
+      <c r="P1" s="139" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="183" t="s">
+      <c r="S1" s="210" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="188" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="192" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="188"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="196" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="201" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="197"/>
+      <c r="G2" s="202"/>
       <c r="H2" s="88" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="198" t="s">
+      <c r="J2" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="177" t="s">
+      <c r="O2" s="207"/>
+      <c r="P2" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="52" x14ac:dyDescent="0.3">
-      <c r="A3" s="184"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="209" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="209"/>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A3" s="189"/>
       <c r="B3" s="84"/>
       <c r="C3" s="13" t="s">
         <v>20</v>
@@ -1627,7 +1688,7 @@
       <c r="F3" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="119" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="88"/>
@@ -1646,59 +1707,59 @@
       <c r="M3" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="180" t="s">
+      <c r="N3" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="181"/>
-      <c r="P3" s="146" t="s">
+      <c r="O3" s="186"/>
+      <c r="P3" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="146" t="s">
+      <c r="Q3" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="141" t="s">
+      <c r="R3" s="137" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="184"/>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="189"/>
       <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="187" t="s">
+      <c r="C4" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="185" t="s">
+      <c r="D4" s="193"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="186"/>
+      <c r="G4" s="191"/>
       <c r="H4" s="89" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="182" t="s">
+      <c r="J4" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="182"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
       <c r="N4" s="81" t="s">
         <v>47</v>
       </c>
       <c r="O4" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="179" t="s">
+      <c r="P4" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="179"/>
-    </row>
-    <row r="5" spans="1:18" s="27" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
+    </row>
+    <row r="5" spans="1:20" s="27" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>51</v>
       </c>
@@ -1717,11 +1778,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F5" s="139">
+      <c r="F5" s="135">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="140">
+      <c r="G5" s="136">
         <f>F5+1</f>
         <v>6</v>
       </c>
@@ -1757,17 +1818,17 @@
         <f>N5+1</f>
         <v>14</v>
       </c>
-      <c r="P5" s="142">
+      <c r="P5" s="138">
         <v>15</v>
       </c>
-      <c r="Q5" s="142">
+      <c r="Q5" s="138">
         <v>16</v>
       </c>
-      <c r="R5" s="142">
+      <c r="R5" s="138">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>24</v>
       </c>
@@ -1786,7 +1847,7 @@
       <c r="F6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="120" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="89" t="s">
@@ -1813,19 +1874,19 @@
       <c r="O6" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="142" t="s">
+      <c r="P6" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="142" t="s">
+      <c r="Q6" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="141" t="s">
+      <c r="R6" s="137" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="87">
         <v>1950</v>
@@ -1833,11 +1894,11 @@
       <c r="C7" s="30">
         <v>68.7</v>
       </c>
-      <c r="D7" s="128">
+      <c r="D7" s="126">
         <f>51000/$A$1</f>
         <v>51</v>
       </c>
-      <c r="E7" s="127">
+      <c r="E7" s="125">
         <f>18400/$A$1</f>
         <v>18.399999999999999</v>
       </c>
@@ -1855,30 +1916,30 @@
       <c r="I7" s="46">
         <v>9.61</v>
       </c>
-      <c r="J7" s="172">
+      <c r="J7" s="165">
         <f>341/$A$1</f>
         <v>0.34100000000000003</v>
       </c>
-      <c r="K7" s="173">
-        <v>0</v>
-      </c>
-      <c r="L7" s="173">
-        <v>0</v>
-      </c>
-      <c r="M7" s="174">
+      <c r="K7" s="166">
+        <v>0</v>
+      </c>
+      <c r="L7" s="166">
+        <v>0</v>
+      </c>
+      <c r="M7" s="167">
         <f t="shared" ref="M7:M46" si="1">J7+K7+L7</f>
         <v>0.34100000000000003</v>
       </c>
-      <c r="N7" s="135"/>
+      <c r="N7" s="132"/>
       <c r="O7" s="78"/>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="144"/>
-    </row>
-    <row r="8" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+      <c r="P7" s="151"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="140"/>
+    </row>
+    <row r="8" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
         <f>A7+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="87">
         <v>1951</v>
@@ -1886,11 +1947,11 @@
       <c r="C8" s="30">
         <v>69.099999999999994</v>
       </c>
-      <c r="D8" s="164">
+      <c r="D8" s="160">
         <f>D7+(D17-D7)/10*1</f>
         <v>51.5</v>
       </c>
-      <c r="E8" s="164">
+      <c r="E8" s="160">
         <f>E7+(E17-E7)/10*1</f>
         <v>18.279999999999998</v>
       </c>
@@ -1908,30 +1969,30 @@
       <c r="I8" s="46">
         <v>12.88</v>
       </c>
-      <c r="J8" s="169">
+      <c r="J8" s="164">
         <f>J7+(J12-J7)/5</f>
         <v>0.5262</v>
       </c>
-      <c r="K8" s="173">
-        <v>0</v>
-      </c>
-      <c r="L8" s="173">
-        <v>0</v>
-      </c>
-      <c r="M8" s="174">
+      <c r="K8" s="166">
+        <v>0</v>
+      </c>
+      <c r="L8" s="166">
+        <v>0</v>
+      </c>
+      <c r="M8" s="167">
         <f t="shared" si="1"/>
         <v>0.5262</v>
       </c>
-      <c r="N8" s="135"/>
+      <c r="N8" s="132"/>
       <c r="O8" s="78"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="144"/>
-    </row>
-    <row r="9" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+      <c r="P8" s="140"/>
+      <c r="Q8" s="153"/>
+      <c r="R8" s="140"/>
+    </row>
+    <row r="9" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="71">
         <f t="shared" ref="A9:A72" si="3">A8+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="87">
         <v>1952</v>
@@ -1939,11 +2000,11 @@
       <c r="C9" s="30">
         <v>69.400000000000006</v>
       </c>
-      <c r="D9" s="164">
+      <c r="D9" s="160">
         <f>D7+(D17-D7)/10*2</f>
         <v>52</v>
       </c>
-      <c r="E9" s="164">
+      <c r="E9" s="160">
         <f>E7+(E17-E7)/10*2</f>
         <v>18.16</v>
       </c>
@@ -1961,30 +2022,30 @@
       <c r="I9" s="46">
         <v>15.96</v>
       </c>
-      <c r="J9" s="169">
+      <c r="J9" s="164">
         <f>J7+(J12-J7)*2/5</f>
         <v>0.71140000000000003</v>
       </c>
-      <c r="K9" s="173">
-        <v>0</v>
-      </c>
-      <c r="L9" s="173">
-        <v>0</v>
-      </c>
-      <c r="M9" s="174">
+      <c r="K9" s="166">
+        <v>0</v>
+      </c>
+      <c r="L9" s="166">
+        <v>0</v>
+      </c>
+      <c r="M9" s="167">
         <f t="shared" si="1"/>
         <v>0.71140000000000003</v>
       </c>
-      <c r="N9" s="135"/>
+      <c r="N9" s="132"/>
       <c r="O9" s="78"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="157"/>
-      <c r="R9" s="144"/>
-    </row>
-    <row r="10" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+      <c r="P9" s="140"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="140"/>
+    </row>
+    <row r="10" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="87">
         <v>1953</v>
@@ -1992,11 +2053,11 @@
       <c r="C10" s="30">
         <v>69.8</v>
       </c>
-      <c r="D10" s="164">
+      <c r="D10" s="160">
         <f>D7+(D17-D7)/10*3</f>
         <v>52.5</v>
       </c>
-      <c r="E10" s="164">
+      <c r="E10" s="160">
         <f>E7+(E17-E7)/10*3</f>
         <v>18.04</v>
       </c>
@@ -2014,30 +2075,30 @@
       <c r="I10" s="46">
         <v>17.55</v>
       </c>
-      <c r="J10" s="169">
+      <c r="J10" s="164">
         <f>J7+(J12-J7)*3/5</f>
         <v>0.89659999999999984</v>
       </c>
-      <c r="K10" s="173">
-        <v>0</v>
-      </c>
-      <c r="L10" s="173">
-        <v>0</v>
-      </c>
-      <c r="M10" s="174">
+      <c r="K10" s="166">
+        <v>0</v>
+      </c>
+      <c r="L10" s="166">
+        <v>0</v>
+      </c>
+      <c r="M10" s="167">
         <f t="shared" si="1"/>
         <v>0.89659999999999984</v>
       </c>
-      <c r="N10" s="135"/>
+      <c r="N10" s="132"/>
       <c r="O10" s="78"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="157"/>
-      <c r="R10" s="144"/>
-    </row>
-    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+      <c r="P10" s="140"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="140"/>
+    </row>
+    <row r="11" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="71">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="87">
         <v>1954</v>
@@ -2045,11 +2106,11 @@
       <c r="C11" s="30">
         <v>70.099999999999994</v>
       </c>
-      <c r="D11" s="164">
+      <c r="D11" s="160">
         <f>D7+(D17-D7)/10*4</f>
         <v>53</v>
       </c>
-      <c r="E11" s="164">
+      <c r="E11" s="160">
         <f>E7+(E17-E7)/10*4</f>
         <v>17.919999999999998</v>
       </c>
@@ -2067,30 +2128,30 @@
       <c r="I11" s="46">
         <v>18.350000000000001</v>
       </c>
-      <c r="J11" s="169">
+      <c r="J11" s="164">
         <f>J7+(J12-J7)*4/5</f>
         <v>1.0817999999999999</v>
       </c>
-      <c r="K11" s="173">
-        <v>0</v>
-      </c>
-      <c r="L11" s="173">
-        <v>0</v>
-      </c>
-      <c r="M11" s="174">
+      <c r="K11" s="166">
+        <v>0</v>
+      </c>
+      <c r="L11" s="166">
+        <v>0</v>
+      </c>
+      <c r="M11" s="167">
         <f t="shared" si="1"/>
         <v>1.0817999999999999</v>
       </c>
-      <c r="N11" s="135"/>
+      <c r="N11" s="132"/>
       <c r="O11" s="78"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="144"/>
-    </row>
-    <row r="12" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+      <c r="P11" s="140"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="140"/>
+    </row>
+    <row r="12" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="71">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="87">
         <v>1955</v>
@@ -2098,11 +2159,11 @@
       <c r="C12" s="30">
         <v>70.5</v>
       </c>
-      <c r="D12" s="164">
+      <c r="D12" s="160">
         <f>D7+(D17-D7)/10*5</f>
         <v>53.5</v>
       </c>
-      <c r="E12" s="164">
+      <c r="E12" s="160">
         <f>E7+(E17-E7)/10*5</f>
         <v>17.799999999999997</v>
       </c>
@@ -2120,30 +2181,30 @@
       <c r="I12" s="46">
         <v>20.32</v>
       </c>
-      <c r="J12" s="175">
+      <c r="J12" s="168">
         <f>1267/$A$1</f>
         <v>1.2669999999999999</v>
       </c>
-      <c r="K12" s="173">
-        <v>0</v>
-      </c>
-      <c r="L12" s="173">
-        <v>0</v>
-      </c>
-      <c r="M12" s="174">
+      <c r="K12" s="166">
+        <v>0</v>
+      </c>
+      <c r="L12" s="166">
+        <v>0</v>
+      </c>
+      <c r="M12" s="167">
         <f t="shared" si="1"/>
         <v>1.2669999999999999</v>
       </c>
-      <c r="N12" s="135"/>
+      <c r="N12" s="132"/>
       <c r="O12" s="78"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="144"/>
-    </row>
-    <row r="13" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+      <c r="P12" s="140"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="140"/>
+    </row>
+    <row r="13" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="71">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="87">
         <v>1956</v>
@@ -2151,11 +2212,11 @@
       <c r="C13" s="30">
         <v>70.900000000000006</v>
       </c>
-      <c r="D13" s="164">
+      <c r="D13" s="160">
         <f>D7+(D17-D7)/10*6</f>
         <v>54</v>
       </c>
-      <c r="E13" s="164">
+      <c r="E13" s="160">
         <f>E7+(E17-E7)/10*6</f>
         <v>17.68</v>
       </c>
@@ -2173,30 +2234,30 @@
       <c r="I13" s="46">
         <v>22.77</v>
       </c>
-      <c r="J13" s="169">
+      <c r="J13" s="164">
         <f>J12+(J17-J12)/5</f>
         <v>1.4327999999999999</v>
       </c>
-      <c r="K13" s="173">
-        <v>0</v>
-      </c>
-      <c r="L13" s="173">
-        <v>0</v>
-      </c>
-      <c r="M13" s="174">
+      <c r="K13" s="166">
+        <v>0</v>
+      </c>
+      <c r="L13" s="166">
+        <v>0</v>
+      </c>
+      <c r="M13" s="167">
         <f t="shared" si="1"/>
         <v>1.4327999999999999</v>
       </c>
-      <c r="N13" s="135"/>
+      <c r="N13" s="132"/>
       <c r="O13" s="78"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="144"/>
-    </row>
-    <row r="14" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+      <c r="P13" s="140"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="140"/>
+    </row>
+    <row r="14" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="87">
         <v>1957</v>
@@ -2204,11 +2265,11 @@
       <c r="C14" s="30">
         <v>71.400000000000006</v>
       </c>
-      <c r="D14" s="164">
+      <c r="D14" s="160">
         <f>D17+(D17-D7)/10*7</f>
         <v>59.5</v>
       </c>
-      <c r="E14" s="164">
+      <c r="E14" s="160">
         <f>E17+(E17-E7)/10*7</f>
         <v>16.36</v>
       </c>
@@ -2226,30 +2287,30 @@
       <c r="I14" s="46">
         <v>24.51</v>
       </c>
-      <c r="J14" s="169">
+      <c r="J14" s="164">
         <f>J12+(J17-J12)*2/5</f>
         <v>1.5986</v>
       </c>
-      <c r="K14" s="173">
-        <v>0</v>
-      </c>
-      <c r="L14" s="173">
-        <v>0</v>
-      </c>
-      <c r="M14" s="174">
+      <c r="K14" s="166">
+        <v>0</v>
+      </c>
+      <c r="L14" s="166">
+        <v>0</v>
+      </c>
+      <c r="M14" s="167">
         <f t="shared" si="1"/>
         <v>1.5986</v>
       </c>
-      <c r="N14" s="135"/>
+      <c r="N14" s="132"/>
       <c r="O14" s="78"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="144"/>
-    </row>
-    <row r="15" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+      <c r="P14" s="140"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="140"/>
+    </row>
+    <row r="15" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="71">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="87">
         <v>1958</v>
@@ -2257,11 +2318,11 @@
       <c r="C15" s="30">
         <v>71.900000000000006</v>
       </c>
-      <c r="D15" s="164">
+      <c r="D15" s="160">
         <f>D7+(D17-D7)/10*8</f>
         <v>55</v>
       </c>
-      <c r="E15" s="164">
+      <c r="E15" s="160">
         <f>E7+(E17-E7)/10*8</f>
         <v>17.439999999999998</v>
       </c>
@@ -2279,30 +2340,30 @@
       <c r="I15" s="46">
         <v>25.66</v>
       </c>
-      <c r="J15" s="169">
+      <c r="J15" s="164">
         <f>J12+(J17-J12)*3/5</f>
         <v>1.7644</v>
       </c>
-      <c r="K15" s="173">
-        <v>0</v>
-      </c>
-      <c r="L15" s="173">
-        <v>0</v>
-      </c>
-      <c r="M15" s="174">
+      <c r="K15" s="166">
+        <v>0</v>
+      </c>
+      <c r="L15" s="166">
+        <v>0</v>
+      </c>
+      <c r="M15" s="167">
         <f t="shared" si="1"/>
         <v>1.7644</v>
       </c>
-      <c r="N15" s="135"/>
+      <c r="N15" s="132"/>
       <c r="O15" s="78"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="144"/>
-    </row>
-    <row r="16" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+      <c r="P15" s="140"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="140"/>
+    </row>
+    <row r="16" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="71">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="87">
         <v>1959</v>
@@ -2310,11 +2371,11 @@
       <c r="C16" s="30">
         <v>72.400000000000006</v>
       </c>
-      <c r="D16" s="164">
+      <c r="D16" s="160">
         <f>D7+(D17-D7)/10*8</f>
         <v>55</v>
       </c>
-      <c r="E16" s="164">
+      <c r="E16" s="160">
         <f>E7+(E17-E7)/10*8</f>
         <v>17.439999999999998</v>
       </c>
@@ -2332,30 +2393,30 @@
       <c r="I16" s="46">
         <v>28.96</v>
       </c>
-      <c r="J16" s="169">
+      <c r="J16" s="164">
         <f>J12+(J17-J12)*4/5</f>
         <v>1.9302000000000001</v>
       </c>
-      <c r="K16" s="173">
-        <v>0</v>
-      </c>
-      <c r="L16" s="173">
-        <v>0</v>
-      </c>
-      <c r="M16" s="174">
+      <c r="K16" s="166">
+        <v>0</v>
+      </c>
+      <c r="L16" s="166">
+        <v>0</v>
+      </c>
+      <c r="M16" s="167">
         <f t="shared" si="1"/>
         <v>1.9302000000000001</v>
       </c>
-      <c r="N16" s="135"/>
+      <c r="N16" s="132"/>
       <c r="O16" s="78"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="144"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="140"/>
     </row>
     <row r="17" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="71">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="87">
         <v>1960</v>
@@ -2363,11 +2424,11 @@
       <c r="C17" s="30">
         <v>73</v>
       </c>
-      <c r="D17" s="165">
+      <c r="D17" s="161">
         <f>56000/$A$1</f>
         <v>56</v>
       </c>
-      <c r="E17" s="127">
+      <c r="E17" s="125">
         <f>17200/$A$1</f>
         <v>17.2</v>
       </c>
@@ -2385,30 +2446,30 @@
       <c r="I17" s="46">
         <v>34.07</v>
       </c>
-      <c r="J17" s="175">
+      <c r="J17" s="168">
         <f>2096/$A$1</f>
         <v>2.0960000000000001</v>
       </c>
-      <c r="K17" s="173">
-        <v>0</v>
-      </c>
-      <c r="L17" s="173">
-        <v>0</v>
-      </c>
-      <c r="M17" s="174">
+      <c r="K17" s="166">
+        <v>0</v>
+      </c>
+      <c r="L17" s="166">
+        <v>0</v>
+      </c>
+      <c r="M17" s="167">
         <f t="shared" si="1"/>
         <v>2.0960000000000001</v>
       </c>
-      <c r="N17" s="135"/>
+      <c r="N17" s="132"/>
       <c r="O17" s="78"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="144"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="140"/>
     </row>
     <row r="18" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="71">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="87">
         <v>1961</v>
@@ -2416,11 +2477,11 @@
       <c r="C18" s="31">
         <v>73.7</v>
       </c>
-      <c r="D18" s="164">
+      <c r="D18" s="160">
         <f>D17+(D27-D17)/10*1</f>
         <v>56.5</v>
       </c>
-      <c r="E18" s="164">
+      <c r="E18" s="160">
         <f>E17+(E27-E17)/10*1</f>
         <v>17.189999999999998</v>
       </c>
@@ -2438,30 +2499,30 @@
       <c r="I18" s="46">
         <v>39.22</v>
       </c>
-      <c r="J18" s="169">
+      <c r="J18" s="164">
         <f>J17+(J22-J17)/5</f>
         <v>2.2784</v>
       </c>
-      <c r="K18" s="173">
-        <v>0</v>
-      </c>
-      <c r="L18" s="173">
-        <v>0</v>
-      </c>
-      <c r="M18" s="174">
+      <c r="K18" s="166">
+        <v>0</v>
+      </c>
+      <c r="L18" s="166">
+        <v>0</v>
+      </c>
+      <c r="M18" s="167">
         <f t="shared" si="1"/>
         <v>2.2784</v>
       </c>
-      <c r="N18" s="135"/>
+      <c r="N18" s="132"/>
       <c r="O18" s="78"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="144"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="140"/>
     </row>
     <row r="19" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="71">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="87">
         <v>1962</v>
@@ -2469,11 +2530,11 @@
       <c r="C19" s="31">
         <v>74.400000000000006</v>
       </c>
-      <c r="D19" s="164">
+      <c r="D19" s="160">
         <f>D17+(D27-D17)/10*2</f>
         <v>57</v>
       </c>
-      <c r="E19" s="164">
+      <c r="E19" s="160">
         <f>E17+(E27-E17)/10*2</f>
         <v>17.18</v>
       </c>
@@ -2491,30 +2552,30 @@
       <c r="I19" s="46">
         <v>43.19</v>
       </c>
-      <c r="J19" s="169">
+      <c r="J19" s="164">
         <f>J17+(J22-J17)*2/5</f>
         <v>2.4607999999999999</v>
       </c>
-      <c r="K19" s="173">
-        <v>0</v>
-      </c>
-      <c r="L19" s="173">
-        <v>0</v>
-      </c>
-      <c r="M19" s="174">
+      <c r="K19" s="166">
+        <v>0</v>
+      </c>
+      <c r="L19" s="166">
+        <v>0</v>
+      </c>
+      <c r="M19" s="167">
         <f t="shared" si="1"/>
         <v>2.4607999999999999</v>
       </c>
-      <c r="N19" s="135"/>
+      <c r="N19" s="132"/>
       <c r="O19" s="78"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="144"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="140"/>
     </row>
     <row r="20" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="71">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="87">
         <v>1963</v>
@@ -2522,11 +2583,11 @@
       <c r="C20" s="31">
         <v>75</v>
       </c>
-      <c r="D20" s="164">
+      <c r="D20" s="160">
         <f>D17+(D27-D17)/10*3</f>
         <v>57.5</v>
       </c>
-      <c r="E20" s="164">
+      <c r="E20" s="160">
         <f>E17+(E27-E17)/10*3</f>
         <v>17.170000000000002</v>
       </c>
@@ -2544,30 +2605,30 @@
       <c r="I20" s="46">
         <v>45.88</v>
       </c>
-      <c r="J20" s="169">
+      <c r="J20" s="164">
         <f>J17+(J22-J17)*3/5</f>
         <v>2.6432000000000002</v>
       </c>
-      <c r="K20" s="173">
-        <v>0</v>
-      </c>
-      <c r="L20" s="173">
-        <v>0</v>
-      </c>
-      <c r="M20" s="174">
+      <c r="K20" s="166">
+        <v>0</v>
+      </c>
+      <c r="L20" s="166">
+        <v>0</v>
+      </c>
+      <c r="M20" s="167">
         <f t="shared" si="1"/>
         <v>2.6432000000000002</v>
       </c>
-      <c r="N20" s="135"/>
+      <c r="N20" s="132"/>
       <c r="O20" s="78"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="144"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="71">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="87">
         <v>1964</v>
@@ -2575,11 +2636,11 @@
       <c r="C21" s="31">
         <v>75.599999999999994</v>
       </c>
-      <c r="D21" s="164">
+      <c r="D21" s="160">
         <f>D17+(D27-D17)/10*4</f>
         <v>58</v>
       </c>
-      <c r="E21" s="164">
+      <c r="E21" s="160">
         <f>E17+(E27-E17)/10*4</f>
         <v>17.16</v>
       </c>
@@ -2597,30 +2658,30 @@
       <c r="I21" s="46">
         <v>50.15</v>
       </c>
-      <c r="J21" s="169">
+      <c r="J21" s="164">
         <f>J17+(J22-J17)*4/5</f>
         <v>2.8256000000000001</v>
       </c>
-      <c r="K21" s="173">
-        <v>0</v>
-      </c>
-      <c r="L21" s="173">
-        <v>0</v>
-      </c>
-      <c r="M21" s="174">
+      <c r="K21" s="166">
+        <v>0</v>
+      </c>
+      <c r="L21" s="166">
+        <v>0</v>
+      </c>
+      <c r="M21" s="167">
         <f t="shared" si="1"/>
         <v>2.8256000000000001</v>
       </c>
-      <c r="N21" s="135"/>
+      <c r="N21" s="132"/>
       <c r="O21" s="78"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="144"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="140"/>
     </row>
     <row r="22" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="71">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="87">
         <v>1965</v>
@@ -2628,11 +2689,11 @@
       <c r="C22" s="31">
         <v>76.3</v>
       </c>
-      <c r="D22" s="164">
+      <c r="D22" s="160">
         <f>D17+(D27-D17)/10*5</f>
         <v>58.5</v>
       </c>
-      <c r="E22" s="164">
+      <c r="E22" s="160">
         <f>E17+(E27-E17)/10*5</f>
         <v>17.149999999999999</v>
       </c>
@@ -2650,30 +2711,30 @@
       <c r="I22" s="46">
         <v>53.41</v>
       </c>
-      <c r="J22" s="175">
+      <c r="J22" s="168">
         <f>3008/$A$1</f>
         <v>3.008</v>
       </c>
-      <c r="K22" s="173">
-        <v>0</v>
-      </c>
-      <c r="L22" s="173">
-        <v>0</v>
-      </c>
-      <c r="M22" s="174">
+      <c r="K22" s="166">
+        <v>0</v>
+      </c>
+      <c r="L22" s="166">
+        <v>0</v>
+      </c>
+      <c r="M22" s="167">
         <f t="shared" si="1"/>
         <v>3.008</v>
       </c>
-      <c r="N22" s="135"/>
+      <c r="N22" s="132"/>
       <c r="O22" s="78"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="144"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="140"/>
     </row>
     <row r="23" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="71">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="87">
         <v>1966</v>
@@ -2681,11 +2742,11 @@
       <c r="C23" s="31">
         <v>76.900000000000006</v>
       </c>
-      <c r="D23" s="164">
+      <c r="D23" s="160">
         <f>D17+(D27-D17)/10*6</f>
         <v>59</v>
       </c>
-      <c r="E23" s="164">
+      <c r="E23" s="160">
         <f>E17+(E27-E17)/10*6</f>
         <v>17.14</v>
       </c>
@@ -2703,30 +2764,30 @@
       <c r="I23" s="46">
         <v>56.83</v>
       </c>
-      <c r="J23" s="169">
+      <c r="J23" s="164">
         <f>J22+(J27-J22)/5</f>
         <v>3.1383999999999999</v>
       </c>
-      <c r="K23" s="173">
-        <v>0</v>
-      </c>
-      <c r="L23" s="173">
-        <v>0</v>
-      </c>
-      <c r="M23" s="174">
+      <c r="K23" s="166">
+        <v>0</v>
+      </c>
+      <c r="L23" s="166">
+        <v>0</v>
+      </c>
+      <c r="M23" s="167">
         <f t="shared" si="1"/>
         <v>3.1383999999999999</v>
       </c>
-      <c r="N23" s="135"/>
+      <c r="N23" s="132"/>
       <c r="O23" s="78"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="144"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="140"/>
     </row>
     <row r="24" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="71">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="87">
         <v>1967</v>
@@ -2734,11 +2795,11 @@
       <c r="C24" s="31">
         <v>77</v>
       </c>
-      <c r="D24" s="164">
+      <c r="D24" s="160">
         <f>D27+(D27-D17)/10*7</f>
         <v>64.5</v>
       </c>
-      <c r="E24" s="164">
+      <c r="E24" s="160">
         <f>E27+(E27-E17)/10*7</f>
         <v>17.03</v>
       </c>
@@ -2756,30 +2817,30 @@
       <c r="I24" s="46">
         <v>57.96</v>
       </c>
-      <c r="J24" s="169">
+      <c r="J24" s="164">
         <f>J22+(J27-J22)*2/5</f>
         <v>3.2688000000000001</v>
       </c>
-      <c r="K24" s="173">
-        <v>0</v>
-      </c>
-      <c r="L24" s="173">
-        <v>0</v>
-      </c>
-      <c r="M24" s="174">
+      <c r="K24" s="166">
+        <v>0</v>
+      </c>
+      <c r="L24" s="166">
+        <v>0</v>
+      </c>
+      <c r="M24" s="167">
         <f t="shared" si="1"/>
         <v>3.2688000000000001</v>
       </c>
-      <c r="N24" s="135"/>
+      <c r="N24" s="132"/>
       <c r="O24" s="78"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="144"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="140"/>
     </row>
     <row r="25" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="71">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="87">
         <v>1968</v>
@@ -2787,11 +2848,11 @@
       <c r="C25" s="31">
         <v>77.599999999999994</v>
       </c>
-      <c r="D25" s="164">
+      <c r="D25" s="160">
         <f>D17+(D27-D17)/10*8</f>
         <v>60</v>
       </c>
-      <c r="E25" s="164">
+      <c r="E25" s="160">
         <f>E17+(E27-E17)/10*8</f>
         <v>17.12</v>
       </c>
@@ -2809,30 +2870,30 @@
       <c r="I25" s="46">
         <v>61.55</v>
       </c>
-      <c r="J25" s="169">
+      <c r="J25" s="164">
         <f>J22+(J27-J22)*3/5</f>
         <v>3.3992</v>
       </c>
-      <c r="K25" s="173">
-        <v>0</v>
-      </c>
-      <c r="L25" s="173">
-        <v>0</v>
-      </c>
-      <c r="M25" s="174">
+      <c r="K25" s="166">
+        <v>0</v>
+      </c>
+      <c r="L25" s="166">
+        <v>0</v>
+      </c>
+      <c r="M25" s="167">
         <f t="shared" si="1"/>
         <v>3.3992</v>
       </c>
-      <c r="N25" s="135"/>
+      <c r="N25" s="132"/>
       <c r="O25" s="78"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="144"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="140"/>
     </row>
     <row r="26" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="71">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="87">
         <v>1969</v>
@@ -2840,11 +2901,11 @@
       <c r="C26" s="31">
         <v>78.3</v>
       </c>
-      <c r="D26" s="164">
+      <c r="D26" s="160">
         <f>D17+(D27-D17)/10*8</f>
         <v>60</v>
       </c>
-      <c r="E26" s="164">
+      <c r="E26" s="160">
         <f>E17+(E27-E17)/10*8</f>
         <v>17.12</v>
       </c>
@@ -2862,30 +2923,30 @@
       <c r="I26" s="46">
         <v>75.12</v>
       </c>
-      <c r="J26" s="169">
+      <c r="J26" s="164">
         <f>J22+(J27-J22)*4/5</f>
         <v>3.5296000000000003</v>
       </c>
-      <c r="K26" s="173">
-        <v>0</v>
-      </c>
-      <c r="L26" s="173">
-        <v>0</v>
-      </c>
-      <c r="M26" s="174">
+      <c r="K26" s="166">
+        <v>0</v>
+      </c>
+      <c r="L26" s="166">
+        <v>0</v>
+      </c>
+      <c r="M26" s="167">
         <f t="shared" si="1"/>
         <v>3.5296000000000003</v>
       </c>
-      <c r="N26" s="135"/>
+      <c r="N26" s="132"/>
       <c r="O26" s="78"/>
-      <c r="P26" s="144"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="144"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="140"/>
     </row>
     <row r="27" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="71">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="87">
         <v>1970</v>
@@ -2893,11 +2954,11 @@
       <c r="C27" s="31">
         <v>78.099999999999994</v>
       </c>
-      <c r="D27" s="130">
+      <c r="D27" s="128">
         <f>61000/$A$1</f>
         <v>61</v>
       </c>
-      <c r="E27" s="129">
+      <c r="E27" s="127">
         <f>17100/$A$1</f>
         <v>17.100000000000001</v>
       </c>
@@ -2915,30 +2976,30 @@
       <c r="I27" s="46">
         <v>78.06</v>
       </c>
-      <c r="J27" s="175">
+      <c r="J27" s="168">
         <f>3660/$A$1</f>
         <v>3.66</v>
       </c>
-      <c r="K27" s="173">
-        <v>0</v>
-      </c>
-      <c r="L27" s="173">
-        <v>0</v>
-      </c>
-      <c r="M27" s="174">
+      <c r="K27" s="166">
+        <v>0</v>
+      </c>
+      <c r="L27" s="166">
+        <v>0</v>
+      </c>
+      <c r="M27" s="167">
         <f t="shared" si="1"/>
         <v>3.66</v>
       </c>
-      <c r="N27" s="135"/>
+      <c r="N27" s="132"/>
       <c r="O27" s="78"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="144"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="153"/>
+      <c r="R27" s="140"/>
     </row>
     <row r="28" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="71">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="87">
         <v>1971</v>
@@ -2946,11 +3007,11 @@
       <c r="C28" s="31">
         <v>78.599999999999994</v>
       </c>
-      <c r="D28" s="164">
+      <c r="D28" s="160">
         <f>D27+(D37-D27)/10*1</f>
         <v>61.07</v>
       </c>
-      <c r="E28" s="164">
+      <c r="E28" s="160">
         <f>E27+(E37-E27)/10*1</f>
         <v>17.060000000000002</v>
       </c>
@@ -2968,30 +3029,30 @@
       <c r="I28" s="46">
         <v>87.42</v>
       </c>
-      <c r="J28" s="169">
+      <c r="J28" s="164">
         <f>J27+(J32-J27)/5</f>
         <v>4.2942</v>
       </c>
-      <c r="K28" s="173">
-        <v>0</v>
-      </c>
-      <c r="L28" s="173">
-        <v>0</v>
-      </c>
-      <c r="M28" s="174">
+      <c r="K28" s="166">
+        <v>0</v>
+      </c>
+      <c r="L28" s="166">
+        <v>0</v>
+      </c>
+      <c r="M28" s="167">
         <f t="shared" si="1"/>
         <v>4.2942</v>
       </c>
-      <c r="N28" s="135"/>
+      <c r="N28" s="132"/>
       <c r="O28" s="78"/>
-      <c r="P28" s="144"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="144"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="140"/>
     </row>
     <row r="29" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="71">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="87">
         <v>1972</v>
@@ -2999,11 +3060,11 @@
       <c r="C29" s="31">
         <v>78.8</v>
       </c>
-      <c r="D29" s="164">
+      <c r="D29" s="160">
         <f>D27+(D37-D27)/10*2</f>
         <v>61.14</v>
       </c>
-      <c r="E29" s="164">
+      <c r="E29" s="160">
         <f>E27+(E37-E27)/10*2</f>
         <v>17.02</v>
       </c>
@@ -3021,30 +3082,30 @@
       <c r="I29" s="46">
         <v>100.02</v>
       </c>
-      <c r="J29" s="169">
+      <c r="J29" s="164">
         <f>J27+(J32-J27)*2/5</f>
         <v>4.9283999999999999</v>
       </c>
-      <c r="K29" s="173">
-        <v>0</v>
-      </c>
-      <c r="L29" s="173">
-        <v>0</v>
-      </c>
-      <c r="M29" s="174">
+      <c r="K29" s="166">
+        <v>0</v>
+      </c>
+      <c r="L29" s="166">
+        <v>0</v>
+      </c>
+      <c r="M29" s="167">
         <f t="shared" si="1"/>
         <v>4.9283999999999999</v>
       </c>
-      <c r="N29" s="135"/>
+      <c r="N29" s="132"/>
       <c r="O29" s="78"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="144"/>
+      <c r="P29" s="140"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="140"/>
     </row>
     <row r="30" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="71">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="87">
         <v>1973</v>
@@ -3052,11 +3113,11 @@
       <c r="C30" s="31">
         <v>79.099999999999994</v>
       </c>
-      <c r="D30" s="164">
+      <c r="D30" s="160">
         <f>D27+(D37-D27)/10*3</f>
         <v>61.21</v>
       </c>
-      <c r="E30" s="164">
+      <c r="E30" s="160">
         <f>E27+(E37-E27)/10*3</f>
         <v>16.98</v>
       </c>
@@ -3074,30 +3135,30 @@
       <c r="I30" s="46">
         <v>114.45</v>
       </c>
-      <c r="J30" s="169">
+      <c r="J30" s="164">
         <f>J27+(J32-J27)*3/5</f>
         <v>5.5626000000000007</v>
       </c>
-      <c r="K30" s="173">
-        <v>0</v>
-      </c>
-      <c r="L30" s="173">
-        <v>0</v>
-      </c>
-      <c r="M30" s="174">
+      <c r="K30" s="166">
+        <v>0</v>
+      </c>
+      <c r="L30" s="166">
+        <v>0</v>
+      </c>
+      <c r="M30" s="167">
         <f t="shared" si="1"/>
         <v>5.5626000000000007</v>
       </c>
-      <c r="N30" s="135"/>
+      <c r="N30" s="132"/>
       <c r="O30" s="78"/>
-      <c r="P30" s="144"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="144"/>
+      <c r="P30" s="140"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="140"/>
     </row>
     <row r="31" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="71">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="87">
         <v>1974</v>
@@ -3105,11 +3166,11 @@
       <c r="C31" s="31">
         <v>78.900000000000006</v>
       </c>
-      <c r="D31" s="164">
+      <c r="D31" s="160">
         <f>D27+(D37-D27)/10*4</f>
         <v>61.28</v>
       </c>
-      <c r="E31" s="164">
+      <c r="E31" s="160">
         <f>E27+(E37-E27)/10*4</f>
         <v>16.940000000000001</v>
       </c>
@@ -3127,30 +3188,30 @@
       <c r="I31" s="46">
         <v>122.23</v>
       </c>
-      <c r="J31" s="169">
+      <c r="J31" s="164">
         <f>J27+(J32-J27)*4/5</f>
         <v>6.1968000000000005</v>
       </c>
-      <c r="K31" s="173">
-        <v>0</v>
-      </c>
-      <c r="L31" s="173">
-        <v>0</v>
-      </c>
-      <c r="M31" s="174">
+      <c r="K31" s="166">
+        <v>0</v>
+      </c>
+      <c r="L31" s="166">
+        <v>0</v>
+      </c>
+      <c r="M31" s="167">
         <f t="shared" si="1"/>
         <v>6.1968000000000005</v>
       </c>
-      <c r="N31" s="135"/>
+      <c r="N31" s="132"/>
       <c r="O31" s="78"/>
-      <c r="P31" s="144"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="144"/>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="140"/>
     </row>
     <row r="32" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="71">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="87">
         <v>1975</v>
@@ -3158,11 +3219,11 @@
       <c r="C32" s="31">
         <v>78.5</v>
       </c>
-      <c r="D32" s="164">
+      <c r="D32" s="160">
         <f>D27+(D37-D27)/10*5</f>
         <v>61.35</v>
       </c>
-      <c r="E32" s="164">
+      <c r="E32" s="160">
         <f>E27+(E37-E27)/10*5</f>
         <v>16.899999999999999</v>
       </c>
@@ -3180,30 +3241,30 @@
       <c r="I32" s="46">
         <v>123.13</v>
       </c>
-      <c r="J32" s="175">
+      <c r="J32" s="168">
         <f>6831/$A$1</f>
         <v>6.8310000000000004</v>
       </c>
-      <c r="K32" s="173">
-        <v>0</v>
-      </c>
-      <c r="L32" s="173">
-        <v>0</v>
-      </c>
-      <c r="M32" s="174">
+      <c r="K32" s="166">
+        <v>0</v>
+      </c>
+      <c r="L32" s="166">
+        <v>0</v>
+      </c>
+      <c r="M32" s="167">
         <f t="shared" si="1"/>
         <v>6.8310000000000004</v>
       </c>
-      <c r="N32" s="135"/>
+      <c r="N32" s="132"/>
       <c r="O32" s="78"/>
-      <c r="P32" s="144"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="144"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="140"/>
     </row>
     <row r="33" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="71">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="87">
         <v>1976</v>
@@ -3211,11 +3272,11 @@
       <c r="C33" s="31">
         <v>78.2</v>
       </c>
-      <c r="D33" s="164">
+      <c r="D33" s="160">
         <f>D27+(D37-D27)/10*6</f>
         <v>61.42</v>
       </c>
-      <c r="E33" s="164">
+      <c r="E33" s="160">
         <f>E27+(E37-E27)/10*6</f>
         <v>16.86</v>
       </c>
@@ -3233,30 +3294,30 @@
       <c r="I33" s="46">
         <v>136.38999999999999</v>
       </c>
-      <c r="J33" s="169">
+      <c r="J33" s="164">
         <f>J32+(J37-J32)/5</f>
         <v>7.6252000000000004</v>
       </c>
-      <c r="K33" s="173">
-        <v>0</v>
-      </c>
-      <c r="L33" s="173">
-        <v>0</v>
-      </c>
-      <c r="M33" s="174">
+      <c r="K33" s="166">
+        <v>0</v>
+      </c>
+      <c r="L33" s="166">
+        <v>0</v>
+      </c>
+      <c r="M33" s="167">
         <f t="shared" si="1"/>
         <v>7.6252000000000004</v>
       </c>
-      <c r="N33" s="135"/>
+      <c r="N33" s="132"/>
       <c r="O33" s="78"/>
-      <c r="P33" s="144"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="144"/>
+      <c r="P33" s="140"/>
+      <c r="Q33" s="153"/>
+      <c r="R33" s="140"/>
     </row>
     <row r="34" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="71">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="87">
         <v>1977</v>
@@ -3264,11 +3325,11 @@
       <c r="C34" s="31">
         <v>78.099999999999994</v>
       </c>
-      <c r="D34" s="164">
+      <c r="D34" s="160">
         <f>D37+(D37-D27)/10*7</f>
         <v>62.190000000000005</v>
       </c>
-      <c r="E34" s="164">
+      <c r="E34" s="160">
         <f>E37+(E37-E27)/10*7</f>
         <v>16.419999999999998</v>
       </c>
@@ -3286,30 +3347,30 @@
       <c r="I34" s="46">
         <v>152.41999999999999</v>
       </c>
-      <c r="J34" s="169">
+      <c r="J34" s="164">
         <f>J32+(J37-J32)*2/5</f>
         <v>8.4193999999999996</v>
       </c>
-      <c r="K34" s="173">
-        <v>0</v>
-      </c>
-      <c r="L34" s="173">
-        <v>0</v>
-      </c>
-      <c r="M34" s="174">
+      <c r="K34" s="166">
+        <v>0</v>
+      </c>
+      <c r="L34" s="166">
+        <v>0</v>
+      </c>
+      <c r="M34" s="167">
         <f t="shared" si="1"/>
         <v>8.4193999999999996</v>
       </c>
-      <c r="N34" s="135"/>
+      <c r="N34" s="132"/>
       <c r="O34" s="78"/>
-      <c r="P34" s="144"/>
-      <c r="Q34" s="157"/>
-      <c r="R34" s="144"/>
+      <c r="P34" s="140"/>
+      <c r="Q34" s="153"/>
+      <c r="R34" s="140"/>
     </row>
     <row r="35" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="71">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="87">
         <v>1978</v>
@@ -3317,11 +3378,11 @@
       <c r="C35" s="31">
         <v>78.099999999999994</v>
       </c>
-      <c r="D35" s="164">
+      <c r="D35" s="160">
         <f>D27+(D37-D27)/10*8</f>
         <v>61.56</v>
       </c>
-      <c r="E35" s="164">
+      <c r="E35" s="160">
         <f>E27+(E37-E27)/10*8</f>
         <v>16.78</v>
       </c>
@@ -3339,30 +3400,30 @@
       <c r="I35" s="46">
         <v>162.69999999999999</v>
       </c>
-      <c r="J35" s="169">
+      <c r="J35" s="164">
         <f>J32+(J37-J32)*3/5</f>
         <v>9.2135999999999996</v>
       </c>
-      <c r="K35" s="173">
-        <v>0</v>
-      </c>
-      <c r="L35" s="173">
-        <v>0</v>
-      </c>
-      <c r="M35" s="174">
+      <c r="K35" s="166">
+        <v>0</v>
+      </c>
+      <c r="L35" s="166">
+        <v>0</v>
+      </c>
+      <c r="M35" s="167">
         <f t="shared" si="1"/>
         <v>9.2135999999999996</v>
       </c>
-      <c r="N35" s="135"/>
+      <c r="N35" s="132"/>
       <c r="O35" s="78"/>
-      <c r="P35" s="144"/>
-      <c r="Q35" s="157"/>
-      <c r="R35" s="144"/>
+      <c r="P35" s="140"/>
+      <c r="Q35" s="153"/>
+      <c r="R35" s="140"/>
     </row>
     <row r="36" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="71">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="87">
         <v>1979</v>
@@ -3370,11 +3431,11 @@
       <c r="C36" s="31">
         <v>78.2</v>
       </c>
-      <c r="D36" s="164">
+      <c r="D36" s="160">
         <f>D27+(D37-D27)/10*8</f>
         <v>61.56</v>
       </c>
-      <c r="E36" s="164">
+      <c r="E36" s="160">
         <f>E27+(E37-E27)/10*8</f>
         <v>16.78</v>
       </c>
@@ -3392,30 +3453,30 @@
       <c r="I36" s="46">
         <v>175.15</v>
       </c>
-      <c r="J36" s="169">
+      <c r="J36" s="164">
         <f>J32+(J37-J32)*4/5</f>
         <v>10.0078</v>
       </c>
-      <c r="K36" s="173">
-        <v>0</v>
-      </c>
-      <c r="L36" s="173">
-        <v>0</v>
-      </c>
-      <c r="M36" s="174">
+      <c r="K36" s="166">
+        <v>0</v>
+      </c>
+      <c r="L36" s="166">
+        <v>0</v>
+      </c>
+      <c r="M36" s="167">
         <f t="shared" si="1"/>
         <v>10.0078</v>
       </c>
-      <c r="N36" s="135"/>
+      <c r="N36" s="132"/>
       <c r="O36" s="78"/>
-      <c r="P36" s="144"/>
-      <c r="Q36" s="157"/>
-      <c r="R36" s="144"/>
+      <c r="P36" s="140"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="140"/>
     </row>
     <row r="37" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="71">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" s="87">
         <v>1980</v>
@@ -3423,11 +3484,11 @@
       <c r="C37" s="31">
         <v>78.400000000000006</v>
       </c>
-      <c r="D37" s="130">
+      <c r="D37" s="128">
         <f>61700/$A$1</f>
         <v>61.7</v>
       </c>
-      <c r="E37" s="129">
+      <c r="E37" s="127">
         <f>16700/$A$1</f>
         <v>16.7</v>
       </c>
@@ -3445,30 +3506,30 @@
       <c r="I37" s="46">
         <v>186.58</v>
       </c>
-      <c r="J37" s="175">
+      <c r="J37" s="168">
         <f>10802/$A$1</f>
         <v>10.802</v>
       </c>
-      <c r="K37" s="173">
-        <v>0</v>
-      </c>
-      <c r="L37" s="173">
-        <v>0</v>
-      </c>
-      <c r="M37" s="174">
+      <c r="K37" s="166">
+        <v>0</v>
+      </c>
+      <c r="L37" s="166">
+        <v>0</v>
+      </c>
+      <c r="M37" s="167">
         <f t="shared" si="1"/>
         <v>10.802</v>
       </c>
-      <c r="N37" s="135"/>
+      <c r="N37" s="132"/>
       <c r="O37" s="78"/>
-      <c r="P37" s="144"/>
-      <c r="Q37" s="157"/>
-      <c r="R37" s="144"/>
+      <c r="P37" s="140"/>
+      <c r="Q37" s="153"/>
+      <c r="R37" s="140"/>
     </row>
     <row r="38" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="71">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="87">
         <v>1981</v>
@@ -3476,11 +3537,11 @@
       <c r="C38" s="31">
         <v>78.400000000000006</v>
       </c>
-      <c r="D38" s="164">
+      <c r="D38" s="160">
         <f>D37+(D47-D37)/10*1</f>
         <v>61.900000000000006</v>
       </c>
-      <c r="E38" s="164">
+      <c r="E38" s="160">
         <f>E37+(E47-E37)/10*1</f>
         <v>16.63</v>
       </c>
@@ -3498,30 +3559,30 @@
       <c r="I38" s="46">
         <v>189.34</v>
       </c>
-      <c r="J38" s="169">
+      <c r="J38" s="164">
         <f>J37+(J42-J37)/5</f>
         <v>11.212199999999999</v>
       </c>
-      <c r="K38" s="173">
-        <v>0</v>
-      </c>
-      <c r="L38" s="173">
-        <v>0</v>
-      </c>
-      <c r="M38" s="174">
+      <c r="K38" s="166">
+        <v>0</v>
+      </c>
+      <c r="L38" s="166">
+        <v>0</v>
+      </c>
+      <c r="M38" s="167">
         <f t="shared" si="1"/>
         <v>11.212199999999999</v>
       </c>
-      <c r="N38" s="135"/>
+      <c r="N38" s="132"/>
       <c r="O38" s="78"/>
-      <c r="P38" s="144"/>
-      <c r="Q38" s="157"/>
-      <c r="R38" s="144"/>
+      <c r="P38" s="140"/>
+      <c r="Q38" s="153"/>
+      <c r="R38" s="140"/>
     </row>
     <row r="39" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="71">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="87">
         <v>1982</v>
@@ -3529,11 +3590,11 @@
       <c r="C39" s="31">
         <v>78.2</v>
       </c>
-      <c r="D39" s="164">
+      <c r="D39" s="160">
         <f>D37+(D47-D37)/10*2</f>
         <v>62.1</v>
       </c>
-      <c r="E39" s="164">
+      <c r="E39" s="160">
         <f>E37+(E47-E37)/10*2</f>
         <v>16.559999999999999</v>
       </c>
@@ -3551,32 +3612,32 @@
       <c r="I39" s="46">
         <v>193.63</v>
       </c>
-      <c r="J39" s="169">
+      <c r="J39" s="164">
         <f>J37+(J42-J37)*2/5</f>
         <v>11.622399999999999</v>
       </c>
-      <c r="K39" s="173">
-        <v>0</v>
-      </c>
-      <c r="L39" s="173">
-        <v>0</v>
-      </c>
-      <c r="M39" s="174">
+      <c r="K39" s="166">
+        <v>0</v>
+      </c>
+      <c r="L39" s="166">
+        <v>0</v>
+      </c>
+      <c r="M39" s="167">
         <f t="shared" si="1"/>
         <v>11.622399999999999</v>
       </c>
-      <c r="N39" s="135"/>
+      <c r="N39" s="132"/>
       <c r="O39" s="78"/>
-      <c r="P39" s="144"/>
-      <c r="Q39" s="158" t="s">
+      <c r="P39" s="140"/>
+      <c r="Q39" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="R39" s="144"/>
+      <c r="R39" s="140"/>
     </row>
     <row r="40" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="71">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="87">
         <v>1983</v>
@@ -3584,11 +3645,11 @@
       <c r="C40" s="31">
         <v>78</v>
       </c>
-      <c r="D40" s="164">
+      <c r="D40" s="160">
         <f>D37+(D47-D37)/10*3</f>
         <v>62.300000000000004</v>
       </c>
-      <c r="E40" s="164">
+      <c r="E40" s="160">
         <f>E37+(E47-E37)/10*3</f>
         <v>16.489999999999998</v>
       </c>
@@ -3606,32 +3667,32 @@
       <c r="I40" s="46">
         <v>202.77</v>
       </c>
-      <c r="J40" s="169">
+      <c r="J40" s="164">
         <f>J37+(J42-J37)*3/5</f>
         <v>12.0326</v>
       </c>
-      <c r="K40" s="173">
-        <v>0</v>
-      </c>
-      <c r="L40" s="173">
-        <v>0</v>
-      </c>
-      <c r="M40" s="174">
+      <c r="K40" s="166">
+        <v>0</v>
+      </c>
+      <c r="L40" s="166">
+        <v>0</v>
+      </c>
+      <c r="M40" s="167">
         <f t="shared" si="1"/>
         <v>12.0326</v>
       </c>
-      <c r="N40" s="135"/>
+      <c r="N40" s="132"/>
       <c r="O40" s="78"/>
-      <c r="P40" s="144"/>
-      <c r="Q40" s="152" t="s">
+      <c r="P40" s="140"/>
+      <c r="Q40" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="R40" s="144"/>
+      <c r="R40" s="140"/>
     </row>
     <row r="41" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="71">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="87">
         <v>1984</v>
@@ -3639,11 +3700,11 @@
       <c r="C41" s="31">
         <v>77.7</v>
       </c>
-      <c r="D41" s="164">
+      <c r="D41" s="160">
         <f>D37+(D47-D37)/10*4</f>
         <v>62.5</v>
       </c>
-      <c r="E41" s="164">
+      <c r="E41" s="160">
         <f>E37+(E47-E37)/10*4</f>
         <v>16.419999999999998</v>
       </c>
@@ -3661,32 +3722,32 @@
       <c r="I41" s="46">
         <v>212.03</v>
       </c>
-      <c r="J41" s="169">
+      <c r="J41" s="164">
         <f>J37+(J42-J37)*4/5</f>
         <v>12.4428</v>
       </c>
-      <c r="K41" s="173">
-        <v>0</v>
-      </c>
-      <c r="L41" s="173">
-        <v>0</v>
-      </c>
-      <c r="M41" s="174">
+      <c r="K41" s="166">
+        <v>0</v>
+      </c>
+      <c r="L41" s="166">
+        <v>0</v>
+      </c>
+      <c r="M41" s="167">
         <f t="shared" si="1"/>
         <v>12.4428</v>
       </c>
-      <c r="N41" s="135"/>
+      <c r="N41" s="132"/>
       <c r="O41" s="78"/>
-      <c r="P41" s="144"/>
-      <c r="Q41" s="159">
+      <c r="P41" s="140"/>
+      <c r="Q41" s="155">
         <v>-498.51</v>
       </c>
-      <c r="R41" s="144"/>
+      <c r="R41" s="140"/>
     </row>
     <row r="42" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="71">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42" s="87">
         <v>1985</v>
@@ -3694,11 +3755,11 @@
       <c r="C42" s="31">
         <v>77.7</v>
       </c>
-      <c r="D42" s="164">
+      <c r="D42" s="160">
         <f>D37+(D47-D37)/10*5</f>
         <v>62.7</v>
       </c>
-      <c r="E42" s="164">
+      <c r="E42" s="160">
         <f>E37+(E47-E37)/10*5</f>
         <v>16.350000000000001</v>
       </c>
@@ -3716,34 +3777,34 @@
       <c r="I42" s="46">
         <v>223.54</v>
       </c>
-      <c r="J42" s="175">
+      <c r="J42" s="168">
         <f>12853/$A$1</f>
         <v>12.853</v>
       </c>
-      <c r="K42" s="173">
-        <v>0</v>
-      </c>
-      <c r="L42" s="173">
-        <v>0</v>
-      </c>
-      <c r="M42" s="174">
+      <c r="K42" s="166">
+        <v>0</v>
+      </c>
+      <c r="L42" s="166">
+        <v>0</v>
+      </c>
+      <c r="M42" s="167">
         <f t="shared" si="1"/>
         <v>12.853</v>
       </c>
-      <c r="N42" s="135"/>
+      <c r="N42" s="132"/>
       <c r="O42" s="78"/>
-      <c r="P42" s="151" t="s">
+      <c r="P42" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="Q42" s="160" t="s">
+      <c r="Q42" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="R42" s="144"/>
+      <c r="R42" s="140"/>
     </row>
     <row r="43" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="71">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" s="87">
         <v>1986</v>
@@ -3751,11 +3812,11 @@
       <c r="C43" s="31">
         <v>77.8</v>
       </c>
-      <c r="D43" s="164">
+      <c r="D43" s="160">
         <f>D37+(D47-D37)/10*6</f>
         <v>62.900000000000006</v>
       </c>
-      <c r="E43" s="164">
+      <c r="E43" s="160">
         <f>E37+(E47-E37)/10*6</f>
         <v>16.28</v>
       </c>
@@ -3773,34 +3834,34 @@
       <c r="I43" s="46">
         <v>231.33</v>
       </c>
-      <c r="J43" s="169">
+      <c r="J43" s="164">
         <f>J42+(J47-J42)/5</f>
         <v>13.3192</v>
       </c>
-      <c r="K43" s="173">
-        <v>0</v>
-      </c>
-      <c r="L43" s="173">
-        <v>0</v>
-      </c>
-      <c r="M43" s="174">
+      <c r="K43" s="166">
+        <v>0</v>
+      </c>
+      <c r="L43" s="166">
+        <v>0</v>
+      </c>
+      <c r="M43" s="167">
         <f t="shared" si="1"/>
         <v>13.3192</v>
       </c>
-      <c r="N43" s="135"/>
+      <c r="N43" s="132"/>
       <c r="O43" s="78"/>
-      <c r="P43" s="151" t="s">
+      <c r="P43" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="Q43" s="160" t="s">
+      <c r="Q43" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="R43" s="144"/>
+      <c r="R43" s="140"/>
     </row>
     <row r="44" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="71">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" s="87">
         <v>1987</v>
@@ -3808,11 +3869,11 @@
       <c r="C44" s="31">
         <v>77.900000000000006</v>
       </c>
-      <c r="D44" s="164">
+      <c r="D44" s="160">
         <f>D47+(D47-D37)/10*7</f>
         <v>65.100000000000009</v>
       </c>
-      <c r="E44" s="164">
+      <c r="E44" s="160">
         <f>E47+(E47-E37)/10*7</f>
         <v>15.51</v>
       </c>
@@ -3830,36 +3891,36 @@
       <c r="I44" s="46">
         <v>239.62</v>
       </c>
-      <c r="J44" s="169">
+      <c r="J44" s="164">
         <f>J42+(J47-J42)*2/5</f>
         <v>13.785399999999999</v>
       </c>
-      <c r="K44" s="173">
-        <v>0</v>
-      </c>
-      <c r="L44" s="173">
-        <v>0</v>
-      </c>
-      <c r="M44" s="174">
+      <c r="K44" s="166">
+        <v>0</v>
+      </c>
+      <c r="L44" s="166">
+        <v>0</v>
+      </c>
+      <c r="M44" s="167">
         <f t="shared" si="1"/>
         <v>13.785399999999999</v>
       </c>
-      <c r="N44" s="135"/>
+      <c r="N44" s="132"/>
       <c r="O44" s="78"/>
-      <c r="P44" s="144">
+      <c r="P44" s="140">
         <f>86.3/2</f>
         <v>43.15</v>
       </c>
-      <c r="Q44" s="144">
+      <c r="Q44" s="140">
         <f>929/2</f>
         <v>464.5</v>
       </c>
-      <c r="R44" s="144"/>
+      <c r="R44" s="140"/>
     </row>
     <row r="45" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="71">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" s="87">
         <v>1988</v>
@@ -3867,11 +3928,11 @@
       <c r="C45" s="31">
         <v>78.400000000000006</v>
       </c>
-      <c r="D45" s="164">
+      <c r="D45" s="160">
         <f>D37+(D47-D37)/10*8</f>
         <v>63.300000000000004</v>
       </c>
-      <c r="E45" s="164">
+      <c r="E45" s="160">
         <f>E37+(E47-E37)/10*8</f>
         <v>16.14</v>
       </c>
@@ -3889,32 +3950,32 @@
       <c r="I45" s="46">
         <v>249.56</v>
       </c>
-      <c r="J45" s="169">
+      <c r="J45" s="164">
         <f>J42+(J47-J42)*3/5</f>
         <v>14.2516</v>
       </c>
-      <c r="K45" s="173">
-        <v>0</v>
-      </c>
-      <c r="L45" s="173">
-        <v>0</v>
-      </c>
-      <c r="M45" s="174">
+      <c r="K45" s="166">
+        <v>0</v>
+      </c>
+      <c r="L45" s="166">
+        <v>0</v>
+      </c>
+      <c r="M45" s="167">
         <f t="shared" si="1"/>
         <v>14.2516</v>
       </c>
-      <c r="N45" s="135"/>
+      <c r="N45" s="132"/>
       <c r="O45" s="78"/>
-      <c r="P45" s="151" t="s">
+      <c r="P45" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="Q45" s="144"/>
-      <c r="R45" s="144"/>
+      <c r="Q45" s="140"/>
+      <c r="R45" s="140"/>
     </row>
     <row r="46" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="71">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B46" s="87">
         <v>1989</v>
@@ -3922,11 +3983,11 @@
       <c r="C46" s="31">
         <v>79.099999999999994</v>
       </c>
-      <c r="D46" s="164">
+      <c r="D46" s="160">
         <f>D37+(D47-D37)/10*8</f>
         <v>63.300000000000004</v>
       </c>
-      <c r="E46" s="164">
+      <c r="E46" s="160">
         <f>E37+(E47-E37)/10*8</f>
         <v>16.14</v>
       </c>
@@ -3944,33 +4005,33 @@
       <c r="I46" s="46">
         <v>273.81</v>
       </c>
-      <c r="J46" s="169">
+      <c r="J46" s="164">
         <f>J42+(J47-J42)*4/5</f>
         <v>14.717799999999999</v>
       </c>
-      <c r="K46" s="173">
-        <v>0</v>
-      </c>
-      <c r="L46" s="173">
-        <v>0</v>
-      </c>
-      <c r="M46" s="174">
+      <c r="K46" s="166">
+        <v>0</v>
+      </c>
+      <c r="L46" s="166">
+        <v>0</v>
+      </c>
+      <c r="M46" s="167">
         <f t="shared" si="1"/>
         <v>14.717799999999999</v>
       </c>
-      <c r="N46" s="135"/>
+      <c r="N46" s="132"/>
       <c r="O46" s="78"/>
-      <c r="P46" s="144">
+      <c r="P46" s="140">
         <f>19.9/2</f>
         <v>9.9499999999999993</v>
       </c>
-      <c r="Q46" s="157"/>
-      <c r="R46" s="144"/>
+      <c r="Q46" s="153"/>
+      <c r="R46" s="140"/>
     </row>
     <row r="47" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="71">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47" s="87">
         <v>1990</v>
@@ -3978,11 +4039,11 @@
       <c r="C47" s="31">
         <v>79.8</v>
       </c>
-      <c r="D47" s="130">
+      <c r="D47" s="128">
         <f>63700/$A$1</f>
         <v>63.7</v>
       </c>
-      <c r="E47" s="129">
+      <c r="E47" s="127">
         <f>16000/$A$1</f>
         <v>16</v>
       </c>
@@ -4000,30 +4061,30 @@
       <c r="I47" s="46">
         <v>281.04000000000002</v>
       </c>
-      <c r="J47" s="175">
+      <c r="J47" s="168">
         <f>15184/$A$1</f>
         <v>15.183999999999999</v>
       </c>
-      <c r="K47" s="173">
-        <v>0</v>
-      </c>
-      <c r="L47" s="173">
-        <v>0</v>
-      </c>
-      <c r="M47" s="174">
+      <c r="K47" s="166">
+        <v>0</v>
+      </c>
+      <c r="L47" s="166">
+        <v>0</v>
+      </c>
+      <c r="M47" s="167">
         <f>J47+K47+L47</f>
         <v>15.183999999999999</v>
       </c>
-      <c r="N47" s="135"/>
+      <c r="N47" s="132"/>
       <c r="O47" s="78"/>
-      <c r="P47" s="145"/>
-      <c r="Q47" s="147"/>
+      <c r="P47" s="141"/>
+      <c r="Q47" s="143"/>
       <c r="R47" s="74"/>
     </row>
     <row r="48" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="71">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B48" s="87">
         <v>1991</v>
@@ -4031,11 +4092,11 @@
       <c r="C48" s="31">
         <v>80.3</v>
       </c>
-      <c r="D48" s="164">
+      <c r="D48" s="160">
         <f>D47+(D52-D47)/5*1</f>
         <v>64.22</v>
       </c>
-      <c r="E48" s="164">
+      <c r="E48" s="160">
         <f>E47+(E52-E47)/5*1</f>
         <v>15.9</v>
       </c>
@@ -4053,30 +4114,30 @@
       <c r="I48" s="46">
         <v>338.43</v>
       </c>
-      <c r="J48" s="175">
+      <c r="J48" s="168">
         <f>19624/$A$1</f>
         <v>19.623999999999999</v>
       </c>
-      <c r="K48" s="173">
-        <v>0</v>
-      </c>
-      <c r="L48" s="173">
-        <v>0</v>
-      </c>
-      <c r="M48" s="174">
+      <c r="K48" s="166">
+        <v>0</v>
+      </c>
+      <c r="L48" s="166">
+        <v>0</v>
+      </c>
+      <c r="M48" s="167">
         <f>J48+K48+L48</f>
         <v>19.623999999999999</v>
       </c>
-      <c r="N48" s="135"/>
+      <c r="N48" s="132"/>
       <c r="O48" s="78"/>
-      <c r="P48" s="145"/>
-      <c r="Q48" s="149"/>
+      <c r="P48" s="141"/>
+      <c r="Q48" s="145"/>
       <c r="R48" s="74"/>
     </row>
     <row r="49" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A49" s="71">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" s="87">
         <v>1992</v>
@@ -4084,11 +4145,11 @@
       <c r="C49" s="31">
         <v>81</v>
       </c>
-      <c r="D49" s="164">
+      <c r="D49" s="160">
         <f>D47+(D52-D47)/5*2</f>
         <v>64.739999999999995</v>
       </c>
-      <c r="E49" s="164">
+      <c r="E49" s="160">
         <f>E47+(E52-E47)/5*2</f>
         <v>15.8</v>
       </c>
@@ -4106,31 +4167,31 @@
       <c r="I49" s="46">
         <v>374.13</v>
       </c>
-      <c r="J49" s="175">
+      <c r="J49" s="168">
         <f>19790/$A$1</f>
         <v>19.79</v>
       </c>
-      <c r="K49" s="173">
+      <c r="K49" s="166">
         <f>3957/$A$1</f>
         <v>3.9569999999999999</v>
       </c>
-      <c r="L49" s="173">
-        <v>0</v>
-      </c>
-      <c r="M49" s="174">
+      <c r="L49" s="166">
+        <v>0</v>
+      </c>
+      <c r="M49" s="167">
         <f>J49+K49+L49</f>
         <v>23.747</v>
       </c>
-      <c r="N49" s="135"/>
+      <c r="N49" s="132"/>
       <c r="O49" s="78"/>
-      <c r="P49" s="145"/>
-      <c r="Q49" s="149"/>
+      <c r="P49" s="141"/>
+      <c r="Q49" s="145"/>
       <c r="R49" s="74"/>
     </row>
     <row r="50" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="71">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="87">
         <v>1993</v>
@@ -4138,11 +4199,11 @@
       <c r="C50" s="31">
         <v>81.3</v>
       </c>
-      <c r="D50" s="164">
+      <c r="D50" s="160">
         <f>D47+(D52-D47)/5*3</f>
         <v>65.260000000000005</v>
       </c>
-      <c r="E50" s="164">
+      <c r="E50" s="160">
         <f>E47+(E52-E47)/5*3</f>
         <v>15.7</v>
       </c>
@@ -4160,31 +4221,31 @@
       <c r="I50" s="46">
         <v>383.02</v>
       </c>
-      <c r="J50" s="175">
+      <c r="J50" s="168">
         <f>20768/$A$1</f>
         <v>20.768000000000001</v>
       </c>
-      <c r="K50" s="173">
+      <c r="K50" s="166">
         <f>4597/$A$1</f>
         <v>4.5970000000000004</v>
       </c>
-      <c r="L50" s="173">
-        <v>0</v>
-      </c>
-      <c r="M50" s="174">
+      <c r="L50" s="166">
+        <v>0</v>
+      </c>
+      <c r="M50" s="167">
         <f t="shared" ref="M50:M77" si="4">J50+K50+L50</f>
         <v>25.365000000000002</v>
       </c>
-      <c r="N50" s="135"/>
+      <c r="N50" s="132"/>
       <c r="O50" s="78"/>
-      <c r="P50" s="145"/>
-      <c r="Q50" s="149"/>
+      <c r="P50" s="141"/>
+      <c r="Q50" s="145"/>
       <c r="R50" s="74"/>
     </row>
     <row r="51" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="71">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="87">
         <v>1994</v>
@@ -4192,11 +4253,11 @@
       <c r="C51" s="31">
         <v>81.5</v>
       </c>
-      <c r="D51" s="164">
+      <c r="D51" s="160">
         <f>D47+(D52-D47)/5*4</f>
         <v>65.78</v>
       </c>
-      <c r="E51" s="164">
+      <c r="E51" s="160">
         <f>E47+(E52-E47)/5*4</f>
         <v>15.6</v>
       </c>
@@ -4214,31 +4275,31 @@
       <c r="I51" s="46">
         <v>401.96</v>
       </c>
-      <c r="J51" s="175">
+      <c r="J51" s="168">
         <f>23990/$A$1</f>
         <v>23.99</v>
       </c>
-      <c r="K51" s="173">
+      <c r="K51" s="166">
         <f>5878/$A$1</f>
         <v>5.8780000000000001</v>
       </c>
-      <c r="L51" s="173">
-        <v>0</v>
-      </c>
-      <c r="M51" s="174">
+      <c r="L51" s="166">
+        <v>0</v>
+      </c>
+      <c r="M51" s="167">
         <f t="shared" si="4"/>
         <v>29.867999999999999</v>
       </c>
-      <c r="N51" s="135"/>
+      <c r="N51" s="132"/>
       <c r="O51" s="78"/>
-      <c r="P51" s="145"/>
-      <c r="Q51" s="149"/>
+      <c r="P51" s="141"/>
+      <c r="Q51" s="145"/>
       <c r="R51" s="74"/>
     </row>
     <row r="52" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="71">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="87">
         <v>1995</v>
@@ -4246,11 +4307,11 @@
       <c r="C52" s="31">
         <v>81.8</v>
       </c>
-      <c r="D52" s="130">
+      <c r="D52" s="128">
         <f>66300/$A$1</f>
         <v>66.3</v>
       </c>
-      <c r="E52" s="131">
+      <c r="E52" s="129">
         <f>15500/$A$1</f>
         <v>15.5</v>
       </c>
@@ -4268,22 +4329,22 @@
       <c r="I52" s="46">
         <v>416.34</v>
       </c>
-      <c r="J52" s="175">
+      <c r="J52" s="168">
         <f>23914/$A$1</f>
         <v>23.914000000000001</v>
       </c>
-      <c r="K52" s="173">
+      <c r="K52" s="166">
         <f>6531/$A$1</f>
         <v>6.5309999999999997</v>
       </c>
-      <c r="L52" s="173">
-        <v>0</v>
-      </c>
-      <c r="M52" s="174">
+      <c r="L52" s="166">
+        <v>0</v>
+      </c>
+      <c r="M52" s="167">
         <f t="shared" si="4"/>
         <v>30.445</v>
       </c>
-      <c r="N52" s="136">
+      <c r="N52" s="133">
         <f>4.0084025098019/100</f>
         <v>4.0084025098018998E-2</v>
       </c>
@@ -4291,14 +4352,14 @@
         <f t="shared" ref="O52:O75" si="5">N52*H52</f>
         <v>75.943594790957775</v>
       </c>
-      <c r="P52" s="145"/>
-      <c r="Q52" s="149"/>
+      <c r="P52" s="141"/>
+      <c r="Q52" s="145"/>
       <c r="R52" s="74"/>
     </row>
     <row r="53" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="71">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" s="87">
         <v>1996</v>
@@ -4306,11 +4367,11 @@
       <c r="C53" s="31">
         <v>82</v>
       </c>
-      <c r="D53" s="164">
+      <c r="D53" s="160">
         <f>D52+(D57-D52)/5*1</f>
         <v>66.459999999999994</v>
       </c>
-      <c r="E53" s="164">
+      <c r="E53" s="160">
         <f>E52+(E57-E52)/5*1</f>
         <v>15.42</v>
       </c>
@@ -4328,22 +4389,22 @@
       <c r="I53" s="46">
         <v>408.97</v>
       </c>
-      <c r="J53" s="175">
+      <c r="J53" s="168">
         <f>25179/$A$1</f>
         <v>25.178999999999998</v>
       </c>
-      <c r="K53" s="173">
+      <c r="K53" s="166">
         <f>7152/$A$1</f>
         <v>7.1520000000000001</v>
       </c>
-      <c r="L53" s="173">
-        <v>0</v>
-      </c>
-      <c r="M53" s="174">
+      <c r="L53" s="166">
+        <v>0</v>
+      </c>
+      <c r="M53" s="167">
         <f t="shared" si="4"/>
         <v>32.330999999999996</v>
       </c>
-      <c r="N53" s="137">
+      <c r="N53" s="134">
         <f>4.0195512286627/100</f>
         <v>4.0195512286627003E-2</v>
       </c>
@@ -4351,14 +4412,14 @@
         <f t="shared" si="5"/>
         <v>77.23085339727939</v>
       </c>
-      <c r="P53" s="145"/>
-      <c r="Q53" s="149"/>
+      <c r="P53" s="141"/>
+      <c r="Q53" s="145"/>
       <c r="R53" s="74"/>
     </row>
     <row r="54" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="71">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" s="87">
         <v>1997</v>
@@ -4366,11 +4427,11 @@
       <c r="C54" s="31">
         <v>82.1</v>
       </c>
-      <c r="D54" s="164">
+      <c r="D54" s="160">
         <f>D52+(D57-D52)/5*2</f>
         <v>66.61999999999999</v>
       </c>
-      <c r="E54" s="164">
+      <c r="E54" s="160">
         <f>E52+(E57-E52)/5*2</f>
         <v>15.34</v>
       </c>
@@ -4388,22 +4449,22 @@
       <c r="I54" s="46">
         <v>407.5</v>
       </c>
-      <c r="J54" s="175">
+      <c r="J54" s="168">
         <f>27447/$A$1</f>
         <v>27.446999999999999</v>
       </c>
-      <c r="K54" s="173">
+      <c r="K54" s="166">
         <f>7776/$A$1</f>
         <v>7.7759999999999998</v>
       </c>
-      <c r="L54" s="173">
-        <v>0</v>
-      </c>
-      <c r="M54" s="174">
+      <c r="L54" s="166">
+        <v>0</v>
+      </c>
+      <c r="M54" s="167">
         <f t="shared" si="4"/>
         <v>35.222999999999999</v>
       </c>
-      <c r="N54" s="137">
+      <c r="N54" s="134">
         <f>3.940021728183/100</f>
         <v>3.9400217281829998E-2</v>
       </c>
@@ -4411,14 +4472,14 @@
         <f t="shared" si="5"/>
         <v>77.269736122260909</v>
       </c>
-      <c r="P54" s="145"/>
-      <c r="Q54" s="149"/>
+      <c r="P54" s="141"/>
+      <c r="Q54" s="145"/>
       <c r="R54" s="74"/>
     </row>
     <row r="55" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="71">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" s="87">
         <v>1998</v>
@@ -4426,11 +4487,11 @@
       <c r="C55" s="31">
         <v>82</v>
       </c>
-      <c r="D55" s="164">
+      <c r="D55" s="160">
         <f>D52+(D57-D52)/5*3</f>
         <v>66.78</v>
       </c>
-      <c r="E55" s="164">
+      <c r="E55" s="160">
         <f>E52+(E57-E52)/5*3</f>
         <v>15.26</v>
       </c>
@@ -4448,23 +4509,23 @@
       <c r="I55" s="46">
         <v>425.84</v>
       </c>
-      <c r="J55" s="175">
+      <c r="J55" s="168">
         <f>28961/$A$1</f>
         <v>28.960999999999999</v>
       </c>
-      <c r="K55" s="173">
+      <c r="K55" s="166">
         <f>8214/$A$1</f>
         <v>8.2140000000000004</v>
       </c>
-      <c r="L55" s="173">
+      <c r="L55" s="166">
         <f>4908/$A$1</f>
         <v>4.9080000000000004</v>
       </c>
-      <c r="M55" s="174">
+      <c r="M55" s="167">
         <f t="shared" si="4"/>
         <v>42.082999999999998</v>
       </c>
-      <c r="N55" s="137">
+      <c r="N55" s="134">
         <f>3.8375675846452/100</f>
         <v>3.8375675846452004E-2</v>
       </c>
@@ -4472,14 +4533,14 @@
         <f t="shared" si="5"/>
         <v>77.304728938609841</v>
       </c>
-      <c r="P55" s="145"/>
-      <c r="Q55" s="149"/>
+      <c r="P55" s="141"/>
+      <c r="Q55" s="145"/>
       <c r="R55" s="74"/>
     </row>
     <row r="56" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="71">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" s="87">
         <v>1999</v>
@@ -4487,11 +4548,11 @@
       <c r="C56" s="31">
         <v>82.2</v>
       </c>
-      <c r="D56" s="164">
+      <c r="D56" s="160">
         <f>D52+(D57-D52)/5*4</f>
         <v>66.94</v>
       </c>
-      <c r="E56" s="164">
+      <c r="E56" s="160">
         <f>E52+(E57-E52)/5*4</f>
         <v>15.18</v>
       </c>
@@ -4509,23 +4570,23 @@
       <c r="I56" s="46">
         <v>453</v>
       </c>
-      <c r="J56" s="175">
+      <c r="J56" s="168">
         <f>27173/$A$1</f>
         <v>27.172999999999998</v>
       </c>
-      <c r="K56" s="173">
+      <c r="K56" s="166">
         <f>7384/$A$1</f>
         <v>7.3840000000000003</v>
       </c>
-      <c r="L56" s="173">
+      <c r="L56" s="166">
         <f>7976/$A$1</f>
         <v>7.976</v>
       </c>
-      <c r="M56" s="174">
+      <c r="M56" s="167">
         <f t="shared" si="4"/>
         <v>42.533000000000001</v>
       </c>
-      <c r="N56" s="137">
+      <c r="N56" s="134">
         <f>3.8250336546955/100</f>
         <v>3.8250336546954998E-2</v>
       </c>
@@ -4533,14 +4594,14 @@
         <f t="shared" si="5"/>
         <v>78.77580311172288</v>
       </c>
-      <c r="P56" s="145"/>
-      <c r="Q56" s="149"/>
+      <c r="P56" s="141"/>
+      <c r="Q56" s="145"/>
       <c r="R56" s="74"/>
     </row>
     <row r="57" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="71">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" s="87">
         <v>2000</v>
@@ -4552,7 +4613,7 @@
         <f>67100/$A$1</f>
         <v>67.099999999999994</v>
       </c>
-      <c r="E57" s="129">
+      <c r="E57" s="127">
         <f>15100/$A$1</f>
         <v>15.1</v>
       </c>
@@ -4570,23 +4631,23 @@
       <c r="I57" s="46">
         <v>467.18</v>
       </c>
-      <c r="J57" s="175">
+      <c r="J57" s="168">
         <f>26200/$A$1</f>
         <v>26.2</v>
       </c>
-      <c r="K57" s="173">
+      <c r="K57" s="166">
         <f>7141/$A$1</f>
         <v>7.141</v>
       </c>
-      <c r="L57" s="173">
+      <c r="L57" s="166">
         <f>9078/$A$1</f>
         <v>9.0779999999999994</v>
       </c>
-      <c r="M57" s="174">
+      <c r="M57" s="167">
         <f t="shared" si="4"/>
         <v>42.418999999999997</v>
       </c>
-      <c r="N57" s="137">
+      <c r="N57" s="134">
         <f>3.7581912578411/100</f>
         <v>3.7581912578411002E-2</v>
       </c>
@@ -4594,14 +4655,14 @@
         <f t="shared" si="5"/>
         <v>79.263636000000858</v>
       </c>
-      <c r="P57" s="145"/>
-      <c r="Q57" s="149"/>
+      <c r="P57" s="141"/>
+      <c r="Q57" s="145"/>
       <c r="R57" s="74"/>
     </row>
     <row r="58" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="71">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B58" s="87">
         <v>2001</v>
@@ -4609,11 +4670,11 @@
       <c r="C58" s="31">
         <v>82.4</v>
       </c>
-      <c r="D58" s="164">
+      <c r="D58" s="160">
         <f>D57+(D62-D57)/5*1</f>
         <v>66.819999999999993</v>
       </c>
-      <c r="E58" s="164">
+      <c r="E58" s="160">
         <f>E57+(E62-E57)/5*1</f>
         <v>15.42</v>
       </c>
@@ -4631,23 +4692,23 @@
       <c r="I58" s="46">
         <v>446.17</v>
       </c>
-      <c r="J58" s="175">
+      <c r="J58" s="168">
         <f>26617/$A$1</f>
         <v>26.617000000000001</v>
       </c>
-      <c r="K58" s="173">
+      <c r="K58" s="166">
         <f>7212/$A$1</f>
         <v>7.2119999999999997</v>
       </c>
-      <c r="L58" s="173">
+      <c r="L58" s="166">
         <f>12177/$A$1</f>
         <v>12.177</v>
       </c>
-      <c r="M58" s="174">
+      <c r="M58" s="167">
         <f t="shared" si="4"/>
         <v>46.006</v>
       </c>
-      <c r="N58" s="137">
+      <c r="N58" s="134">
         <f>3.754872729616/100</f>
         <v>3.7548727296159996E-2</v>
       </c>
@@ -4655,14 +4716,14 @@
         <f t="shared" si="5"/>
         <v>81.576111999999441</v>
       </c>
-      <c r="P58" s="148"/>
-      <c r="Q58" s="149"/>
+      <c r="P58" s="144"/>
+      <c r="Q58" s="145"/>
       <c r="R58" s="74"/>
     </row>
     <row r="59" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="71">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" s="87">
         <v>2002</v>
@@ -4670,11 +4731,11 @@
       <c r="C59" s="31">
         <v>82.5</v>
       </c>
-      <c r="D59" s="164">
+      <c r="D59" s="160">
         <f>D57+(D62-D57)/5*2</f>
         <v>66.539999999999992</v>
       </c>
-      <c r="E59" s="164">
+      <c r="E59" s="160">
         <f>E57+(E62-E57)/5*2</f>
         <v>15.74</v>
       </c>
@@ -4692,23 +4753,23 @@
       <c r="I59" s="47">
         <v>441.63</v>
       </c>
-      <c r="J59" s="175">
+      <c r="J59" s="168">
         <f>27381/$A$1</f>
         <v>27.381</v>
       </c>
-      <c r="K59" s="173">
+      <c r="K59" s="166">
         <f>7405/$A$1</f>
         <v>7.4050000000000002</v>
       </c>
-      <c r="L59" s="173">
+      <c r="L59" s="166">
         <f>14479/$A$1</f>
         <v>14.478999999999999</v>
       </c>
-      <c r="M59" s="174">
+      <c r="M59" s="167">
         <f t="shared" si="4"/>
         <v>49.265000000000001</v>
       </c>
-      <c r="N59" s="137">
+      <c r="N59" s="134">
         <f>3.8628122213528/100</f>
         <v>3.8628122213528002E-2</v>
       </c>
@@ -4716,14 +4777,14 @@
         <f t="shared" si="5"/>
         <v>84.909248000000161</v>
       </c>
-      <c r="P59" s="148"/>
-      <c r="Q59" s="149"/>
+      <c r="P59" s="144"/>
+      <c r="Q59" s="145"/>
       <c r="R59" s="74"/>
     </row>
     <row r="60" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="71">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" s="87">
         <v>2003</v>
@@ -4731,11 +4792,11 @@
       <c r="C60" s="31">
         <v>82.5</v>
       </c>
-      <c r="D60" s="164">
+      <c r="D60" s="160">
         <f>D57+(D62-D57)/5*3</f>
         <v>66.260000000000005</v>
       </c>
-      <c r="E60" s="164">
+      <c r="E60" s="160">
         <f>E57+(E62-E57)/5*3</f>
         <v>16.059999999999999</v>
       </c>
@@ -4753,23 +4814,23 @@
       <c r="I60" s="46">
         <v>442.17</v>
       </c>
-      <c r="J60" s="175">
+      <c r="J60" s="168">
         <f>28793/$A$1</f>
         <v>28.792999999999999</v>
       </c>
-      <c r="K60" s="173">
+      <c r="K60" s="166">
         <f>7796/$A$1</f>
         <v>7.7960000000000003</v>
       </c>
-      <c r="L60" s="173">
+      <c r="L60" s="166">
         <f>17280/$A$1</f>
         <v>17.28</v>
       </c>
-      <c r="M60" s="174">
+      <c r="M60" s="167">
         <f t="shared" si="4"/>
         <v>53.869</v>
       </c>
-      <c r="N60" s="137">
+      <c r="N60" s="134">
         <f>3.8735310209489/100</f>
         <v>3.8735310209488998E-2</v>
       </c>
@@ -4777,14 +4838,14 @@
         <f t="shared" si="5"/>
         <v>85.665849999999594</v>
       </c>
-      <c r="P60" s="148"/>
-      <c r="Q60" s="149"/>
+      <c r="P60" s="144"/>
+      <c r="Q60" s="145"/>
       <c r="R60" s="74"/>
     </row>
     <row r="61" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="71">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" s="87">
         <v>2004</v>
@@ -4792,11 +4853,11 @@
       <c r="C61" s="31">
         <v>82.5</v>
       </c>
-      <c r="D61" s="164">
+      <c r="D61" s="160">
         <f>D57+(D62-D57)/5*4</f>
         <v>65.98</v>
       </c>
-      <c r="E61" s="164">
+      <c r="E61" s="160">
         <f>E57+(E62-E57)/5*4</f>
         <v>16.38</v>
       </c>
@@ -4814,23 +4875,23 @@
       <c r="I61" s="46">
         <v>442.76</v>
       </c>
-      <c r="J61" s="175">
+      <c r="J61" s="168">
         <f>29196/$A$1</f>
         <v>29.196000000000002</v>
       </c>
-      <c r="K61" s="173">
+      <c r="K61" s="166">
         <f>7905/$A$1</f>
         <v>7.9050000000000002</v>
       </c>
-      <c r="L61" s="173">
+      <c r="L61" s="166">
         <f>17264/$A$1</f>
         <v>17.263999999999999</v>
       </c>
-      <c r="M61" s="174">
+      <c r="M61" s="167">
         <f t="shared" si="4"/>
         <v>54.364999999999995</v>
       </c>
-      <c r="N61" s="137">
+      <c r="N61" s="134">
         <f>3.7905713098669/100</f>
         <v>3.7905713098668997E-2</v>
       </c>
@@ -4838,17 +4899,17 @@
         <f t="shared" si="5"/>
         <v>85.762434000000582</v>
       </c>
-      <c r="P61" s="148">
+      <c r="P61" s="144">
         <f>94.5</f>
         <v>94.5</v>
       </c>
-      <c r="Q61" s="149"/>
+      <c r="Q61" s="145"/>
       <c r="R61" s="74"/>
     </row>
     <row r="62" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="71">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="87">
         <v>2005</v>
@@ -4856,11 +4917,11 @@
       <c r="C62" s="31">
         <v>82.4</v>
       </c>
-      <c r="D62" s="130">
+      <c r="D62" s="128">
         <f>65700/$A$1</f>
         <v>65.7</v>
       </c>
-      <c r="E62" s="131">
+      <c r="E62" s="129">
         <f>16700/$A$1</f>
         <v>16.7</v>
       </c>
@@ -4878,23 +4939,23 @@
       <c r="I62" s="46">
         <v>452.08</v>
       </c>
-      <c r="J62" s="175">
+      <c r="J62" s="168">
         <f>29515/$A$1</f>
         <v>29.515000000000001</v>
       </c>
-      <c r="K62" s="173">
+      <c r="K62" s="166">
         <f>7973/$A$1</f>
         <v>7.9729999999999999</v>
       </c>
-      <c r="L62" s="173">
+      <c r="L62" s="166">
         <f>17324/$A$1</f>
         <v>17.324000000000002</v>
       </c>
-      <c r="M62" s="174">
+      <c r="M62" s="167">
         <f t="shared" si="4"/>
         <v>54.811999999999998</v>
       </c>
-      <c r="N62" s="137">
+      <c r="N62" s="134">
         <f>3.7895287788805/100</f>
         <v>3.7895287788805E-2</v>
       </c>
@@ -4902,14 +4963,14 @@
         <f t="shared" si="5"/>
         <v>86.716166000000371</v>
       </c>
-      <c r="P62" s="148"/>
-      <c r="Q62" s="149"/>
+      <c r="P62" s="144"/>
+      <c r="Q62" s="145"/>
       <c r="R62" s="74"/>
     </row>
     <row r="63" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="71">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" s="87">
         <v>2006</v>
@@ -4917,11 +4978,11 @@
       <c r="C63" s="31">
         <v>82.3</v>
       </c>
-      <c r="D63" s="164">
+      <c r="D63" s="160">
         <f>D62+(D67-D62)/5*1</f>
         <v>65.64</v>
       </c>
-      <c r="E63" s="164">
+      <c r="E63" s="160">
         <f>E62+(E67-E62)/5*1</f>
         <v>16.62</v>
       </c>
@@ -4939,23 +5000,23 @@
       <c r="I63" s="46">
         <v>488.44</v>
       </c>
-      <c r="J63" s="175">
+      <c r="J63" s="168">
         <f>29469/$A$1</f>
         <v>29.469000000000001</v>
       </c>
-      <c r="K63" s="173">
+      <c r="K63" s="166">
         <f>7977/$A$1</f>
         <v>7.9770000000000003</v>
       </c>
-      <c r="L63" s="173">
+      <c r="L63" s="166">
         <f>17463/$A$1</f>
         <v>17.463000000000001</v>
       </c>
-      <c r="M63" s="174">
+      <c r="M63" s="167">
         <f t="shared" si="4"/>
         <v>54.908999999999999</v>
       </c>
-      <c r="N63" s="137">
+      <c r="N63" s="134">
         <f>3.7394229962936/100</f>
         <v>3.7394229962935996E-2</v>
       </c>
@@ -4963,14 +5024,14 @@
         <f t="shared" si="5"/>
         <v>89.188229999999379</v>
       </c>
-      <c r="P63" s="148"/>
-      <c r="Q63" s="149"/>
+      <c r="P63" s="144"/>
+      <c r="Q63" s="145"/>
       <c r="R63" s="74"/>
     </row>
     <row r="64" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="71">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" s="87">
         <v>2007</v>
@@ -4978,11 +5039,11 @@
       <c r="C64" s="31">
         <v>82.2</v>
       </c>
-      <c r="D64" s="164">
+      <c r="D64" s="160">
         <f>D62+(D67-D62)/5*2</f>
         <v>65.58</v>
       </c>
-      <c r="E64" s="164">
+      <c r="E64" s="160">
         <f>E62+(E67-E62)/5*2</f>
         <v>16.54</v>
       </c>
@@ -5000,23 +5061,23 @@
       <c r="I64" s="46">
         <v>538.24</v>
       </c>
-      <c r="J64" s="175">
+      <c r="J64" s="168">
         <f>29992/$A$1</f>
         <v>29.992000000000001</v>
       </c>
-      <c r="K64" s="173">
+      <c r="K64" s="166">
         <f>8087/$A$1</f>
         <v>8.0869999999999997</v>
       </c>
-      <c r="L64" s="173">
+      <c r="L64" s="166">
         <f>17864/$A$1</f>
         <v>17.864000000000001</v>
       </c>
-      <c r="M64" s="174">
+      <c r="M64" s="167">
         <f t="shared" si="4"/>
         <v>55.942999999999998</v>
       </c>
-      <c r="N64" s="137">
+      <c r="N64" s="134">
         <f>3.6951591686504/100</f>
         <v>3.6951591686503998E-2</v>
       </c>
@@ -5024,14 +5085,14 @@
         <f t="shared" si="5"/>
         <v>92.36235100000107</v>
       </c>
-      <c r="P64" s="148"/>
-      <c r="Q64" s="149"/>
+      <c r="P64" s="144"/>
+      <c r="Q64" s="145"/>
       <c r="R64" s="74"/>
     </row>
     <row r="65" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="71">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" s="87">
         <v>2008</v>
@@ -5039,11 +5100,11 @@
       <c r="C65" s="31">
         <v>82</v>
       </c>
-      <c r="D65" s="164">
+      <c r="D65" s="160">
         <f>D62+(D67-D62)/5*3</f>
         <v>65.52000000000001</v>
       </c>
-      <c r="E65" s="164">
+      <c r="E65" s="160">
         <f>E62+(E67-E62)/5*3</f>
         <v>16.46</v>
       </c>
@@ -5061,23 +5122,23 @@
       <c r="I65" s="46">
         <v>561.17999999999995</v>
       </c>
-      <c r="J65" s="175">
+      <c r="J65" s="168">
         <f>30158/$A$1</f>
         <v>30.158000000000001</v>
       </c>
-      <c r="K65" s="173">
+      <c r="K65" s="166">
         <f>8083/$A$1</f>
         <v>8.0830000000000002</v>
       </c>
-      <c r="L65" s="173">
+      <c r="L65" s="166">
         <f>18190/$A$1</f>
         <v>18.190000000000001</v>
       </c>
-      <c r="M65" s="174">
+      <c r="M65" s="167">
         <f t="shared" si="4"/>
         <v>56.430999999999997</v>
       </c>
-      <c r="N65" s="137">
+      <c r="N65" s="134">
         <f>3.6802357362487/100</f>
         <v>3.6802357362487E-2</v>
       </c>
@@ -5085,14 +5146,14 @@
         <f t="shared" si="5"/>
         <v>93.716834999999506</v>
       </c>
-      <c r="P65" s="148"/>
-      <c r="Q65" s="149"/>
+      <c r="P65" s="144"/>
+      <c r="Q65" s="145"/>
       <c r="R65" s="74"/>
     </row>
     <row r="66" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="71">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B66" s="87">
         <v>2009</v>
@@ -5100,11 +5161,11 @@
       <c r="C66" s="31">
         <v>81.900000000000006</v>
       </c>
-      <c r="D66" s="164">
+      <c r="D66" s="160">
         <f>D62+(D67-D62)/5*4</f>
         <v>65.460000000000008</v>
       </c>
-      <c r="E66" s="164">
+      <c r="E66" s="160">
         <f>E62+(E67-E62)/5*4</f>
         <v>16.38</v>
       </c>
@@ -5122,23 +5183,23 @@
       <c r="I66" s="46">
         <v>524</v>
       </c>
-      <c r="J66" s="175">
+      <c r="J66" s="168">
         <f>30491/$A$1</f>
         <v>30.491</v>
       </c>
-      <c r="K66" s="173">
+      <c r="K66" s="166">
         <f>8162/$A$1</f>
         <v>8.1620000000000008</v>
       </c>
-      <c r="L66" s="173">
+      <c r="L66" s="166">
         <f>18680/$A$1</f>
         <v>18.68</v>
       </c>
-      <c r="M66" s="174">
+      <c r="M66" s="167">
         <f t="shared" si="4"/>
         <v>57.332999999999998</v>
       </c>
-      <c r="N66" s="137">
+      <c r="N66" s="134">
         <f>4.0856899984872/100</f>
         <v>4.0856899984871999E-2</v>
       </c>
@@ -5146,14 +5207,14 @@
         <f t="shared" si="5"/>
         <v>99.924946000001</v>
       </c>
-      <c r="P66" s="148"/>
-      <c r="Q66" s="149"/>
+      <c r="P66" s="144"/>
+      <c r="Q66" s="145"/>
       <c r="R66" s="74"/>
     </row>
     <row r="67" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="71">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B67" s="87">
         <v>2010</v>
@@ -5161,11 +5222,11 @@
       <c r="C67" s="31">
         <v>81.8</v>
       </c>
-      <c r="D67" s="130">
+      <c r="D67" s="128">
         <f>65400/$A$1</f>
         <v>65.400000000000006</v>
       </c>
-      <c r="E67" s="131">
+      <c r="E67" s="129">
         <f>16300/$A$1</f>
         <v>16.3</v>
       </c>
@@ -5183,23 +5244,23 @@
       <c r="I67" s="46">
         <v>530.59</v>
       </c>
-      <c r="J67" s="175">
+      <c r="J67" s="168">
         <f>31472/$A$1</f>
         <v>31.472000000000001</v>
       </c>
-      <c r="K67" s="173">
+      <c r="K67" s="166">
         <f>8413/$A$1</f>
         <v>8.4130000000000003</v>
       </c>
-      <c r="L67" s="173">
+      <c r="L67" s="166">
         <f>19095/$A$1</f>
         <v>19.094999999999999</v>
       </c>
-      <c r="M67" s="174">
+      <c r="M67" s="167">
         <f t="shared" si="4"/>
         <v>58.980000000000004</v>
       </c>
-      <c r="N67" s="137">
+      <c r="N67" s="134">
         <f>4.142048198409/100</f>
         <v>4.1420481984090006E-2</v>
       </c>
@@ -5207,14 +5268,14 @@
         <f t="shared" si="5"/>
         <v>106.21868400000041</v>
       </c>
-      <c r="P67" s="148"/>
-      <c r="Q67" s="149"/>
+      <c r="P67" s="144"/>
+      <c r="Q67" s="145"/>
       <c r="R67" s="74"/>
     </row>
     <row r="68" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="71">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B68" s="87">
         <v>2011</v>
@@ -5222,11 +5283,11 @@
       <c r="C68" s="31">
         <v>80.3</v>
       </c>
-      <c r="D68" s="164">
+      <c r="D68" s="160">
         <f>D67+(D72-D67)/5*1</f>
         <v>65.540000000000006</v>
       </c>
-      <c r="E68" s="164">
+      <c r="E68" s="160">
         <f>E67+(E72-E67)/5*1</f>
         <v>16.260000000000002</v>
       </c>
@@ -5244,23 +5305,23 @@
       <c r="I68" s="46">
         <v>573.35</v>
       </c>
-      <c r="J68" s="175">
+      <c r="J68" s="168">
         <f>31348/$A$1</f>
         <v>31.347999999999999</v>
       </c>
-      <c r="K68" s="173">
+      <c r="K68" s="166">
         <f>8293/$A$1</f>
         <v>8.2929999999999993</v>
       </c>
-      <c r="L68" s="173">
+      <c r="L68" s="166">
         <f>19241/$A$1</f>
         <v>19.241</v>
       </c>
-      <c r="M68" s="174">
+      <c r="M68" s="167">
         <f t="shared" si="4"/>
         <v>58.881999999999998</v>
       </c>
-      <c r="N68" s="137">
+      <c r="N68" s="134">
         <f>4.08300018554/100</f>
         <v>4.0830001855400005E-2</v>
       </c>
@@ -5268,16 +5329,16 @@
         <f t="shared" si="5"/>
         <v>109.97805979763123</v>
       </c>
-      <c r="P68" s="148">
+      <c r="P68" s="144">
         <v>1500</v>
       </c>
-      <c r="Q68" s="149"/>
+      <c r="Q68" s="145"/>
       <c r="R68" s="74"/>
     </row>
     <row r="69" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="71">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B69" s="87">
         <v>2012</v>
@@ -5285,11 +5346,11 @@
       <c r="C69" s="31">
         <v>80.5</v>
       </c>
-      <c r="D69" s="164">
+      <c r="D69" s="160">
         <f>D67+(D72-D67)/5*2</f>
         <v>65.680000000000007</v>
       </c>
-      <c r="E69" s="164">
+      <c r="E69" s="160">
         <f>E67+(E72-E67)/5*2</f>
         <v>16.220000000000002</v>
       </c>
@@ -5307,23 +5368,23 @@
       <c r="I69" s="46">
         <v>600.04999999999995</v>
       </c>
-      <c r="J69" s="175">
+      <c r="J69" s="168">
         <f>31570/$A$1</f>
         <v>31.57</v>
       </c>
-      <c r="K69" s="173">
+      <c r="K69" s="166">
         <f>8325/$A$1</f>
         <v>8.3249999999999993</v>
       </c>
-      <c r="L69" s="173">
+      <c r="L69" s="166">
         <f>20123/$A$1</f>
         <v>20.123000000000001</v>
       </c>
-      <c r="M69" s="174">
+      <c r="M69" s="167">
         <f t="shared" si="4"/>
         <v>60.018000000000001</v>
       </c>
-      <c r="N69" s="137">
+      <c r="N69" s="134">
         <f>4.0856286926453/100</f>
         <v>4.0856286926453003E-2</v>
       </c>
@@ -5331,14 +5392,14 @@
         <f t="shared" si="5"/>
         <v>112.16317306206069</v>
       </c>
-      <c r="P69" s="148"/>
-      <c r="Q69" s="150"/>
+      <c r="P69" s="144"/>
+      <c r="Q69" s="146"/>
       <c r="R69" s="74"/>
     </row>
     <row r="70" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="71">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B70" s="87">
         <v>2013</v>
@@ -5346,11 +5407,11 @@
       <c r="C70" s="31">
         <v>80.8</v>
       </c>
-      <c r="D70" s="164">
+      <c r="D70" s="160">
         <f>D67+(D72-D67)/5*3</f>
         <v>65.819999999999993</v>
       </c>
-      <c r="E70" s="164">
+      <c r="E70" s="160">
         <f>E67+(E72-E67)/5*3</f>
         <v>16.18</v>
       </c>
@@ -5368,23 +5429,23 @@
       <c r="I70" s="46">
         <v>619.71</v>
       </c>
-      <c r="J70" s="175">
+      <c r="J70" s="168">
         <f>30494/$A$1</f>
         <v>30.494</v>
       </c>
-      <c r="K70" s="173">
+      <c r="K70" s="166">
         <f>8369/$A$1</f>
         <v>8.3689999999999998</v>
       </c>
-      <c r="L70" s="173">
+      <c r="L70" s="166">
         <f>20990/$A$1</f>
         <v>20.99</v>
       </c>
-      <c r="M70" s="174">
+      <c r="M70" s="167">
         <f t="shared" si="4"/>
         <v>59.852999999999994</v>
       </c>
-      <c r="N70" s="137">
+      <c r="N70" s="134">
         <f>4.1599616659231/100</f>
         <v>4.1599616659230995E-2</v>
       </c>
@@ -5392,16 +5453,16 @@
         <f t="shared" si="5"/>
         <v>116.95108229492905</v>
       </c>
-      <c r="P70" s="148"/>
-      <c r="Q70" s="149"/>
-      <c r="R70" s="161" t="s">
+      <c r="P70" s="144"/>
+      <c r="Q70" s="145"/>
+      <c r="R70" s="157" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="71">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B71" s="87">
         <v>2014</v>
@@ -5409,11 +5470,11 @@
       <c r="C71" s="31">
         <v>81.2</v>
       </c>
-      <c r="D71" s="164">
+      <c r="D71" s="160">
         <f>D67+(D72-D67)/5*4</f>
         <v>65.959999999999994</v>
       </c>
-      <c r="E71" s="164">
+      <c r="E71" s="160">
         <f>E67+(E72-E67)/5*4</f>
         <v>16.14</v>
       </c>
@@ -5431,23 +5492,23 @@
       <c r="I71" s="46">
         <v>643.62</v>
       </c>
-      <c r="J71" s="175">
+      <c r="J71" s="168">
         <f>31138/$A$1</f>
         <v>31.138000000000002</v>
       </c>
-      <c r="K71" s="173">
+      <c r="K71" s="166">
         <f>8675/$A$1</f>
         <v>8.6750000000000007</v>
       </c>
-      <c r="L71" s="173">
+      <c r="L71" s="166">
         <f>21522/$A$1</f>
         <v>21.521999999999998</v>
       </c>
-      <c r="M71" s="174">
+      <c r="M71" s="167">
         <f t="shared" si="4"/>
         <v>61.335000000000001</v>
       </c>
-      <c r="N71" s="137">
+      <c r="N71" s="134">
         <f>4.1537407474816/100</f>
         <v>4.1537407474816004E-2</v>
       </c>
@@ -5455,18 +5516,18 @@
         <f t="shared" si="5"/>
         <v>121.59785276400061</v>
       </c>
-      <c r="P71" s="148"/>
-      <c r="Q71" s="149">
+      <c r="P71" s="144"/>
+      <c r="Q71" s="145">
         <v>1300</v>
       </c>
-      <c r="R71" s="161">
+      <c r="R71" s="157">
         <v>-862</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="71">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B72" s="87">
         <v>2015</v>
@@ -5474,11 +5535,11 @@
       <c r="C72" s="31">
         <v>82.2</v>
       </c>
-      <c r="D72" s="130">
+      <c r="D72" s="128">
         <f>66100/$A$1</f>
         <v>66.099999999999994</v>
       </c>
-      <c r="E72" s="131">
+      <c r="E72" s="129">
         <f>16100/$A$1</f>
         <v>16.100000000000001</v>
       </c>
@@ -5496,23 +5557,23 @@
       <c r="I72" s="46">
         <v>673.26</v>
       </c>
-      <c r="J72" s="175">
+      <c r="J72" s="168">
         <f>31472/$A$1</f>
         <v>31.472000000000001</v>
       </c>
-      <c r="K72" s="173">
+      <c r="K72" s="166">
         <f>8757/$A$1</f>
         <v>8.7569999999999997</v>
       </c>
-      <c r="L72" s="173">
+      <c r="L72" s="166">
         <f>22203/$A$1</f>
         <v>22.202999999999999</v>
       </c>
-      <c r="M72" s="174">
+      <c r="M72" s="167">
         <f t="shared" si="4"/>
         <v>62.432000000000002</v>
       </c>
-      <c r="N72" s="137">
+      <c r="N72" s="134">
         <f>4.092796736445/100</f>
         <v>4.0927967364450001E-2</v>
       </c>
@@ -5520,16 +5581,16 @@
         <f t="shared" si="5"/>
         <v>123.85539627895129</v>
       </c>
-      <c r="P72" s="148"/>
-      <c r="Q72" s="149"/>
-      <c r="R72" s="162" t="s">
+      <c r="P72" s="144"/>
+      <c r="Q72" s="145"/>
+      <c r="R72" s="158" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="71">
         <f t="shared" ref="A73:A117" si="7">A72+1</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B73" s="87">
         <v>2016</v>
@@ -5537,11 +5598,11 @@
       <c r="C73" s="31">
         <v>82.5</v>
       </c>
-      <c r="D73" s="164">
+      <c r="D73" s="160">
         <f>D72+(D76-D72)/4*1</f>
         <v>66.324999999999989</v>
       </c>
-      <c r="E73" s="164">
+      <c r="E73" s="160">
         <f>E72+(E76-E72)/4*1</f>
         <v>16.125</v>
       </c>
@@ -5559,23 +5620,23 @@
       <c r="I73" s="46">
         <v>705.79</v>
       </c>
-      <c r="J73" s="175">
+      <c r="J73" s="168">
         <f>32312/$A$1</f>
         <v>32.311999999999998</v>
       </c>
-      <c r="K73" s="173">
+      <c r="K73" s="166">
         <f>9050/$A$1</f>
         <v>9.0500000000000007</v>
       </c>
-      <c r="L73" s="173">
+      <c r="L73" s="166">
         <f>23107/$A$1</f>
         <v>23.106999999999999</v>
       </c>
-      <c r="M73" s="174">
+      <c r="M73" s="167">
         <f t="shared" si="4"/>
         <v>64.468999999999994</v>
       </c>
-      <c r="N73" s="137">
+      <c r="N73" s="134">
         <f>4.1202800607511/100</f>
         <v>4.1202800607511005E-2</v>
       </c>
@@ -5583,15 +5644,15 @@
         <f t="shared" si="5"/>
         <v>129.16006717638905</v>
       </c>
-      <c r="P73" s="148">
+      <c r="P73" s="144">
         <f>1720+187.5</f>
         <v>1907.5</v>
       </c>
-      <c r="Q73" s="153">
+      <c r="Q73" s="149">
         <f>1400-Q41-R71</f>
         <v>2760.51</v>
       </c>
-      <c r="R73" s="163">
+      <c r="R73" s="159">
         <f>Q73-P73</f>
         <v>853.01000000000022</v>
       </c>
@@ -5599,7 +5660,7 @@
     <row r="74" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="71">
         <f t="shared" si="7"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B74" s="87">
         <v>2017</v>
@@ -5607,11 +5668,11 @@
       <c r="C74" s="31">
         <v>82.8</v>
       </c>
-      <c r="D74" s="164">
+      <c r="D74" s="160">
         <f>D72+(D76-D72)/4*2</f>
         <v>66.55</v>
       </c>
-      <c r="E74" s="164">
+      <c r="E74" s="160">
         <f>E72+(E76-E72)/4*2</f>
         <v>16.149999999999999</v>
       </c>
@@ -5629,23 +5690,23 @@
       <c r="I74" s="46">
         <v>734.51</v>
       </c>
-      <c r="J74" s="175">
+      <c r="J74" s="168">
         <f>34396/$A$1</f>
         <v>34.396000000000001</v>
       </c>
-      <c r="K74" s="173">
+      <c r="K74" s="166">
         <f>9395/$A$1</f>
         <v>9.3949999999999996</v>
       </c>
-      <c r="L74" s="173">
+      <c r="L74" s="166">
         <f>24001/$A$1</f>
         <v>24.001000000000001</v>
       </c>
-      <c r="M74" s="174">
+      <c r="M74" s="167">
         <f t="shared" si="4"/>
         <v>67.792000000000002</v>
       </c>
-      <c r="N74" s="137">
+      <c r="N74" s="134">
         <f>4.1342033637173/100</f>
         <v>4.1342033637173002E-2</v>
       </c>
@@ -5653,16 +5714,16 @@
         <f t="shared" si="5"/>
         <v>135.07103861802614</v>
       </c>
-      <c r="P74" s="145"/>
-      <c r="Q74" s="149"/>
-      <c r="R74" s="154" t="s">
+      <c r="P74" s="141"/>
+      <c r="Q74" s="145"/>
+      <c r="R74" s="150" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="71">
         <f t="shared" si="7"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B75" s="87">
         <v>2018</v>
@@ -5670,11 +5731,11 @@
       <c r="C75" s="31">
         <v>83</v>
       </c>
-      <c r="D75" s="164">
+      <c r="D75" s="160">
         <f>D72+(D76-D72)/4*3</f>
         <v>66.775000000000006</v>
       </c>
-      <c r="E75" s="164">
+      <c r="E75" s="160">
         <f>E72+(E76-E72)/4*3</f>
         <v>16.175000000000001</v>
       </c>
@@ -5692,23 +5753,23 @@
       <c r="I75" s="46">
         <v>776.26</v>
       </c>
-      <c r="J75" s="175">
+      <c r="J75" s="168">
         <f>35035/$A$1</f>
         <v>35.034999999999997</v>
       </c>
-      <c r="K75" s="173">
+      <c r="K75" s="166">
         <f>9555/$A$1</f>
         <v>9.5549999999999997</v>
       </c>
-      <c r="L75" s="173">
+      <c r="L75" s="166">
         <f>24915/$A$1</f>
         <v>24.914999999999999</v>
       </c>
-      <c r="M75" s="174">
+      <c r="M75" s="167">
         <f t="shared" si="4"/>
         <v>69.504999999999995</v>
       </c>
-      <c r="N75" s="137">
+      <c r="N75" s="134">
         <f>4.1500621900919/100</f>
         <v>4.1500621900918994E-2</v>
       </c>
@@ -5716,16 +5777,16 @@
         <f t="shared" si="5"/>
         <v>139.76869948144804</v>
       </c>
-      <c r="P75" s="145"/>
-      <c r="Q75" s="149"/>
-      <c r="R75" s="154">
+      <c r="P75" s="141"/>
+      <c r="Q75" s="145"/>
+      <c r="R75" s="150">
         <v>962</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="71">
         <f t="shared" si="7"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B76" s="87">
         <v>2019</v>
@@ -5733,11 +5794,11 @@
       <c r="C76" s="32">
         <v>83.2</v>
       </c>
-      <c r="D76" s="130">
+      <c r="D76" s="128">
         <f>67000/$A$1</f>
         <v>67</v>
       </c>
-      <c r="E76" s="131">
+      <c r="E76" s="129">
         <f>16200/$A$1</f>
         <v>16.2</v>
       </c>
@@ -5755,34 +5816,37 @@
       <c r="I76" s="46">
         <v>799.31</v>
       </c>
-      <c r="J76" s="175">
+      <c r="J76" s="168">
         <f>36305/$A$1</f>
         <v>36.305</v>
       </c>
-      <c r="K76" s="173">
+      <c r="K76" s="166">
         <f>9913/$A$1</f>
         <v>9.9130000000000003</v>
       </c>
-      <c r="L76" s="173">
+      <c r="L76" s="166">
         <f>26087/$A$1</f>
         <v>26.087</v>
       </c>
-      <c r="M76" s="174">
+      <c r="M76" s="167">
         <f t="shared" si="4"/>
         <v>72.305000000000007</v>
       </c>
-      <c r="N76" s="135"/>
-      <c r="O76" s="134">
+      <c r="N76" s="208">
+        <f>4.1500621900919/100</f>
+        <v>4.1500621900918994E-2</v>
+      </c>
+      <c r="O76" s="131">
         <v>150.52500000000001</v>
       </c>
-      <c r="P76" s="145"/>
-      <c r="Q76" s="149"/>
+      <c r="P76" s="141"/>
+      <c r="Q76" s="145"/>
       <c r="R76" s="74"/>
     </row>
     <row r="77" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="71">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B77" s="87">
         <v>2020</v>
@@ -5790,11 +5854,11 @@
       <c r="C77" s="41">
         <v>83.4</v>
       </c>
-      <c r="D77" s="166">
+      <c r="D77" s="162">
         <f t="shared" ref="D77:D78" si="8">67000/$A$1</f>
         <v>67</v>
       </c>
-      <c r="E77" s="167">
+      <c r="E77" s="163">
         <f t="shared" ref="E77:E78" si="9">16200/$A$1</f>
         <v>16.2</v>
       </c>
@@ -5809,92 +5873,100 @@
       <c r="H77" s="91">
         <v>3367.56</v>
       </c>
-      <c r="I77" s="176">
-        <v>799</v>
-      </c>
-      <c r="J77" s="175">
+      <c r="I77" s="181">
+        <v>739.7</v>
+      </c>
+      <c r="J77" s="168">
         <f>37827/$A$1</f>
         <v>37.826999999999998</v>
       </c>
-      <c r="K77" s="173">
+      <c r="K77" s="166">
         <f>10327/$A$1</f>
         <v>10.327</v>
       </c>
-      <c r="L77" s="173">
+      <c r="L77" s="166">
         <f>27148/$A$1</f>
         <v>27.148</v>
       </c>
-      <c r="M77" s="174">
+      <c r="M77" s="167">
         <f t="shared" si="4"/>
         <v>75.301999999999992</v>
       </c>
-      <c r="N77" s="135"/>
-      <c r="O77" s="132">
+      <c r="N77" s="208">
+        <f>4.1500621900919/100</f>
+        <v>4.1500621900918994E-2</v>
+      </c>
+      <c r="O77" s="130">
         <v>159.59200000000001</v>
       </c>
-      <c r="P77" s="145"/>
-      <c r="Q77" s="149"/>
+      <c r="P77" s="141"/>
+      <c r="Q77" s="145"/>
       <c r="R77" s="74"/>
     </row>
-    <row r="78" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="71">
         <f t="shared" si="7"/>
-        <v>71</v>
-      </c>
-      <c r="B78" s="95">
+        <v>72</v>
+      </c>
+      <c r="B78" s="169">
         <v>2021</v>
       </c>
-      <c r="C78" s="96">
+      <c r="C78" s="170">
         <v>83.5</v>
       </c>
-      <c r="D78" s="166">
+      <c r="D78" s="171">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="E78" s="167">
+      <c r="E78" s="172">
         <f t="shared" si="9"/>
         <v>16.2</v>
       </c>
-      <c r="F78" s="115">
-        <f>(1403481+636022+133340+300000)/$A$1</f>
-        <v>2472.8429999999998</v>
-      </c>
-      <c r="G78" s="122">
+      <c r="F78" s="173">
+        <f>(2365577)/$A$1</f>
+        <v>2365.5770000000002</v>
+      </c>
+      <c r="G78" s="174">
         <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="H78" s="101">
+        <v>192.73400000000038</v>
+      </c>
+      <c r="H78" s="175">
         <v>3570.62</v>
       </c>
-      <c r="I78" s="168"/>
-      <c r="J78" s="169">
+      <c r="I78" s="181">
+        <v>812</v>
+      </c>
+      <c r="J78" s="176">
         <f>37827/$A$1</f>
         <v>37.826999999999998</v>
       </c>
-      <c r="K78" s="170">
+      <c r="K78" s="177">
         <f>10327/$A$1</f>
         <v>10.327</v>
       </c>
-      <c r="L78" s="170">
+      <c r="L78" s="177">
         <f>27148/$A$1</f>
         <v>27.148</v>
       </c>
-      <c r="M78" s="171">
+      <c r="M78" s="178">
         <f t="shared" ref="M78" si="10">J78+K78+L78</f>
         <v>75.301999999999992</v>
       </c>
-      <c r="N78" s="138"/>
-      <c r="O78" s="133">
+      <c r="N78" s="208">
+        <f>4.1500621900919/100</f>
+        <v>4.1500621900918994E-2</v>
+      </c>
+      <c r="O78" s="179">
         <v>165.11099999999999</v>
       </c>
-      <c r="P78" s="145"/>
+      <c r="P78" s="14"/>
       <c r="Q78" s="149"/>
-      <c r="R78" s="74"/>
+      <c r="R78" s="180"/>
     </row>
     <row r="79" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A79" s="71">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B79" s="87">
         <v>2022</v>
@@ -5904,7 +5976,7 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="42"/>
-      <c r="F79" s="116"/>
+      <c r="F79" s="115"/>
       <c r="G79" s="111"/>
       <c r="H79" s="73"/>
       <c r="I79" s="73"/>
@@ -5914,14 +5986,14 @@
       <c r="M79" s="74"/>
       <c r="N79" s="72"/>
       <c r="O79" s="75"/>
-      <c r="P79" s="147"/>
-      <c r="Q79" s="150"/>
+      <c r="P79" s="143"/>
+      <c r="Q79" s="146"/>
       <c r="R79" s="74"/>
     </row>
     <row r="80" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A80" s="71">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B80" s="108">
         <v>2023</v>
@@ -5931,14 +6003,14 @@
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="7"/>
-      <c r="G80" s="123"/>
+      <c r="G80" s="121"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A81" s="71">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B81" s="87">
         <v>2024</v>
@@ -5948,14 +6020,14 @@
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="7"/>
-      <c r="G81" s="123"/>
+      <c r="G81" s="121"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A82" s="71">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B82" s="87">
         <v>2025</v>
@@ -5965,14 +6037,14 @@
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="7"/>
-      <c r="G82" s="123"/>
+      <c r="G82" s="121"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A83" s="71">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B83" s="87">
         <v>2026</v>
@@ -5982,14 +6054,14 @@
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="7"/>
-      <c r="G83" s="123"/>
+      <c r="G83" s="121"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A84" s="71">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B84" s="87">
         <v>2027</v>
@@ -5999,14 +6071,14 @@
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="7"/>
-      <c r="G84" s="123"/>
+      <c r="G84" s="121"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="71">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B85" s="87">
         <v>2028</v>
@@ -6016,14 +6088,14 @@
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="7"/>
-      <c r="G85" s="123"/>
+      <c r="G85" s="121"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A86" s="71">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B86" s="87">
         <v>2029</v>
@@ -6033,14 +6105,14 @@
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="7"/>
-      <c r="G86" s="123"/>
+      <c r="G86" s="121"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A87" s="71">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B87" s="87">
         <v>2030</v>
@@ -6050,14 +6122,14 @@
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="7"/>
-      <c r="G87" s="123"/>
+      <c r="G87" s="121"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A88" s="71">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B88" s="87">
         <v>2031</v>
@@ -6067,14 +6139,14 @@
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="7"/>
-      <c r="G88" s="123"/>
+      <c r="G88" s="121"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="71">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B89" s="87">
         <v>2032</v>
@@ -6084,14 +6156,14 @@
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="7"/>
-      <c r="G89" s="123"/>
+      <c r="G89" s="121"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A90" s="71">
         <f t="shared" si="7"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B90" s="87">
         <v>2033</v>
@@ -6101,14 +6173,14 @@
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="7"/>
-      <c r="G90" s="123"/>
+      <c r="G90" s="121"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A91" s="71">
         <f t="shared" si="7"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B91" s="87">
         <v>2034</v>
@@ -6118,14 +6190,14 @@
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="7"/>
-      <c r="G91" s="123"/>
+      <c r="G91" s="121"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A92" s="71">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B92" s="87">
         <v>2035</v>
@@ -6135,14 +6207,14 @@
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="7"/>
-      <c r="G92" s="123"/>
+      <c r="G92" s="121"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A93" s="71">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B93" s="87">
         <v>2036</v>
@@ -6152,14 +6224,14 @@
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="7"/>
-      <c r="G93" s="123"/>
+      <c r="G93" s="121"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A94" s="71">
         <f t="shared" si="7"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B94" s="87">
         <v>2037</v>
@@ -6169,14 +6241,14 @@
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="7"/>
-      <c r="G94" s="123"/>
+      <c r="G94" s="121"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A95" s="71">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B95" s="87">
         <v>2038</v>
@@ -6186,14 +6258,14 @@
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="7"/>
-      <c r="G95" s="123"/>
+      <c r="G95" s="121"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A96" s="71">
         <f t="shared" si="7"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="87">
         <v>2039</v>
@@ -6203,14 +6275,14 @@
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="7"/>
-      <c r="G96" s="123"/>
+      <c r="G96" s="121"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A97" s="71">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B97" s="87">
         <v>2040</v>
@@ -6220,14 +6292,14 @@
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="7"/>
-      <c r="G97" s="123"/>
+      <c r="G97" s="121"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A98" s="71">
         <f t="shared" si="7"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B98" s="87">
         <v>2041</v>
@@ -6237,14 +6309,14 @@
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="7"/>
-      <c r="G98" s="123"/>
+      <c r="G98" s="121"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A99" s="71">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B99" s="87">
         <v>2042</v>
@@ -6254,14 +6326,14 @@
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="7"/>
-      <c r="G99" s="123"/>
+      <c r="G99" s="121"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A100" s="71">
         <f t="shared" si="7"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B100" s="87">
         <v>2043</v>
@@ -6271,14 +6343,14 @@
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="7"/>
-      <c r="G100" s="123"/>
+      <c r="G100" s="121"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A101" s="71">
         <f t="shared" si="7"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B101" s="87">
         <v>2044</v>
@@ -6288,14 +6360,14 @@
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="7"/>
-      <c r="G101" s="123"/>
+      <c r="G101" s="121"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A102" s="71">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="87">
         <v>2045</v>
@@ -6305,14 +6377,14 @@
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="7"/>
-      <c r="G102" s="123"/>
+      <c r="G102" s="121"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="71">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B103" s="87">
         <v>2046</v>
@@ -6322,14 +6394,14 @@
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="7"/>
-      <c r="G103" s="123"/>
+      <c r="G103" s="121"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A104" s="71">
         <f t="shared" si="7"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B104" s="87">
         <v>2047</v>
@@ -6339,14 +6411,14 @@
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="7"/>
-      <c r="G104" s="123"/>
+      <c r="G104" s="121"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="71">
         <f t="shared" si="7"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B105" s="87">
         <v>2048</v>
@@ -6356,14 +6428,14 @@
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="7"/>
-      <c r="G105" s="123"/>
+      <c r="G105" s="121"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A106" s="71">
         <f t="shared" si="7"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B106" s="87">
         <v>2049</v>
@@ -6373,14 +6445,14 @@
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="7"/>
-      <c r="G106" s="123"/>
+      <c r="G106" s="121"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A107" s="71">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107" s="87">
         <v>2050</v>
@@ -6390,14 +6462,14 @@
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="7"/>
-      <c r="G107" s="123"/>
+      <c r="G107" s="121"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A108" s="71">
         <f t="shared" si="7"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B108" s="87">
         <v>2051</v>
@@ -6407,14 +6479,14 @@
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="7"/>
-      <c r="G108" s="123"/>
+      <c r="G108" s="121"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A109" s="71">
         <f t="shared" si="7"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B109" s="87">
         <v>2052</v>
@@ -6424,14 +6496,14 @@
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="7"/>
-      <c r="G109" s="123"/>
+      <c r="G109" s="121"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A110" s="71">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B110" s="87">
         <v>2053</v>
@@ -6441,14 +6513,14 @@
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="7"/>
-      <c r="G110" s="123"/>
+      <c r="G110" s="121"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="71">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B111" s="87">
         <v>2054</v>
@@ -6458,14 +6530,14 @@
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="7"/>
-      <c r="G111" s="123"/>
+      <c r="G111" s="121"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A112" s="71">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B112" s="87">
         <v>2055</v>
@@ -6475,14 +6547,14 @@
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="7"/>
-      <c r="G112" s="123"/>
+      <c r="G112" s="121"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A113" s="71">
         <f t="shared" si="7"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B113" s="87">
         <v>2056</v>
@@ -6492,14 +6564,14 @@
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="7"/>
-      <c r="G113" s="123"/>
+      <c r="G113" s="121"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A114" s="71">
         <f t="shared" si="7"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B114" s="87">
         <v>2057</v>
@@ -6509,14 +6581,14 @@
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="7"/>
-      <c r="G114" s="123"/>
+      <c r="G114" s="121"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A115" s="71">
         <f t="shared" si="7"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B115" s="87">
         <v>2058</v>
@@ -6526,14 +6598,14 @@
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="7"/>
-      <c r="G115" s="123"/>
+      <c r="G115" s="121"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A116" s="71">
         <f t="shared" si="7"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B116" s="87">
         <v>2059</v>
@@ -6543,14 +6615,14 @@
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="7"/>
-      <c r="G116" s="123"/>
+      <c r="G116" s="121"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A117" s="71">
         <f t="shared" si="7"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B117" s="87">
         <v>2060</v>
@@ -6560,7 +6632,7 @@
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="7"/>
-      <c r="G117" s="123"/>
+      <c r="G117" s="121"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
@@ -6579,7 +6651,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F123" s="118" t="s">
+      <c r="F123" s="117" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6592,7 +6664,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:O1"/>
@@ -6619,9 +6692,10 @@
     <hyperlink ref="I1" r:id="rId8" display="https://www.tagesgeldvergleich.net/statistiken/steuereinnahmen.html" xr:uid="{DABC8C1B-B86C-4B33-A33F-F3BFFFAC6114}"/>
     <hyperlink ref="N1" r:id="rId9" display="https://www.deutschlandinzahlen.de/tab/deutschland/bildung/bildungsausgaben/oeffentliche-bildungsausgaben-in-prozent-des-bip" xr:uid="{D9B8A8E3-FD7D-4FC5-A0CB-06535D513C97}"/>
     <hyperlink ref="P1" r:id="rId10" display="https://www.bpb.de/themen/deutsche-einheit/lange-wege-der-deutschen-einheit/47534/die-kosten-und-ertraege-der-wiedervereinigung-deutschlands/" xr:uid="{FA91D62E-A0A8-42CC-9E21-A1D6C302E409}"/>
+    <hyperlink ref="S1" r:id="rId11" display="https://www.bpb.de/themen/deutsche-einheit/lange-wege-der-deutschen-einheit/47436/einkommen-und-vermoegen-wachsende-ungleichheiten/" xr:uid="{97003920-4C10-4DF1-A37A-B8519DAD042A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -6656,11 +6730,11 @@
       <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="C1" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
       <c r="F1" s="59" t="s">
         <v>32</v>
       </c>
@@ -6671,47 +6745,47 @@
       <c r="I1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="192" t="s">
+      <c r="J1" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="194" t="s">
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="195"/>
+      <c r="O1" s="200"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="188"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="196" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="197"/>
+      <c r="G2" s="202"/>
       <c r="H2" s="88" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="198" t="s">
+      <c r="J2" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="202"/>
+      <c r="O2" s="207"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
@@ -6747,10 +6821,10 @@
       <c r="M3" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="180" t="s">
+      <c r="N3" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="181"/>
+      <c r="O3" s="186"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
@@ -6778,12 +6852,12 @@
       <c r="I4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="182" t="s">
+      <c r="J4" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="182"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
       <c r="N4" s="81" t="s">
         <v>47</v>
       </c>
